--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6197,6 +6197,153 @@
       <c r="E284" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>391.6233333333333</v>
+      </c>
+      <c r="C285" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="D285" t="n">
+        <v>383.0322222222222</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>395.07</v>
+      </c>
+      <c r="C286" t="n">
+        <v>386.0376923076923</v>
+      </c>
+      <c r="D286" t="n">
+        <v>380.0466666666667</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>414.3866666666667</v>
+      </c>
+      <c r="C287" t="n">
+        <v>399</v>
+      </c>
+      <c r="D287" t="n">
+        <v>387.7244444444444</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>400.79</v>
+      </c>
+      <c r="C288" t="n">
+        <v>386.2523076923077</v>
+      </c>
+      <c r="D288" t="n">
+        <v>381.3333333333333</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>407.8833333333333</v>
+      </c>
+      <c r="C289" t="n">
+        <v>392.6138461538461</v>
+      </c>
+      <c r="D289" t="n">
+        <v>382.1988888888889</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>406.6933333333333</v>
+      </c>
+      <c r="C290" t="n">
+        <v>390.5569230769231</v>
+      </c>
+      <c r="D290" t="n">
+        <v>388.0888888888889</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>404.9766666666666</v>
+      </c>
+      <c r="C291" t="n">
+        <v>384.7607692307692</v>
+      </c>
+      <c r="D291" t="n">
+        <v>383.2611111111111</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9429,6 +9576,76 @@
       </c>
       <c r="B321" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -9597,28 +9814,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005419174041346218</v>
+        <v>-0.004136381983452596</v>
       </c>
       <c r="J2" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K2" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L2" t="n">
-        <v>2.498509406767546e-05</v>
+        <v>1.510457904496665e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.739371154777442</v>
+        <v>5.754072053601736</v>
       </c>
       <c r="N2" t="n">
-        <v>61.0690285443864</v>
+        <v>60.87679211299611</v>
       </c>
       <c r="O2" t="n">
-        <v>7.814667526157872</v>
+        <v>7.802358112327075</v>
       </c>
       <c r="P2" t="n">
-        <v>404.5384679630008</v>
+        <v>404.6321302566074</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -9674,28 +9891,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05423180370967056</v>
+        <v>-0.06366331188727167</v>
       </c>
       <c r="J3" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002627163497608831</v>
+        <v>0.003757729279620037</v>
       </c>
       <c r="M3" t="n">
-        <v>5.596899526629512</v>
+        <v>5.580005868547342</v>
       </c>
       <c r="N3" t="n">
-        <v>55.9425846584102</v>
+        <v>55.32367800922253</v>
       </c>
       <c r="O3" t="n">
-        <v>7.479477565873849</v>
+        <v>7.437988841697904</v>
       </c>
       <c r="P3" t="n">
-        <v>391.9493190879643</v>
+        <v>392.0455391452493</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -9751,28 +9968,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3123245462270902</v>
+        <v>-0.3168923690663425</v>
       </c>
       <c r="J4" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05343573058688222</v>
+        <v>0.05751347124210748</v>
       </c>
       <c r="M4" t="n">
-        <v>6.569605594090357</v>
+        <v>6.476631891411254</v>
       </c>
       <c r="N4" t="n">
-        <v>85.34472443716346</v>
+        <v>83.40873029998353</v>
       </c>
       <c r="O4" t="n">
-        <v>9.23822084804014</v>
+        <v>9.132838020023323</v>
       </c>
       <c r="P4" t="n">
-        <v>392.5263843946445</v>
+        <v>392.5736372869798</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -9809,7 +10026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17073,6 +17290,195 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>-35.714606102138006,174.53776132558716</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>-35.714622686719814,174.53864422038137</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>-35.71439144707267,174.53945350500663</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>-35.71457523843673,174.53775695307226</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>-35.714584549302245,174.53863364257305</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>-35.714416891079786,174.5394642564395</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>-35.71440226439757,174.53773244760723</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>-35.714470583409216,174.53860203301684</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>-35.7143514582194,174.53943660762576</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-35.71452401782521,174.5377496965666</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-35.71458266238263,174.5386331192166</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-35.71440592563139,174.53945962295916</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-35.714460499489626,174.53774069783753</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-35.714526731107895,174.53861760611838</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-35.714398549047246,174.5394565059641</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-35.7144711555263,174.53774220749165</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-35.71454481577918,174.53862262208014</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-35.71434835228893,174.53943529520856</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-35.71448652767997,174.53774438528473</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-35.71459577613573,174.53863675645061</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-35.714389496396976,174.53945268074375</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -9659,7 +9659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9750,35 +9750,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -9837,27 +9842,28 @@
       <c r="P2" t="n">
         <v>404.6321302566074</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.53825817213024 -35.71811295030909, 174.53708643689333 -35.70984203012983)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5382581721302</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.71811295030909</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5370864368933</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.70984203012983</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5376723045118</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.71397749021946</v>
       </c>
     </row>
@@ -9914,27 +9920,28 @@
       <c r="P3" t="n">
         <v>392.0455391452493</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.53957506825657 -35.71797862513859, 174.53732260633956 -35.70985740559346)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5395750682566</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.71797862513859</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5373226063396</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.70985740559346</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5384488372981</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.71391801536603</v>
       </c>
     </row>
@@ -9991,27 +9998,28 @@
       <c r="P4" t="n">
         <v>392.5736372869798</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.54083291944437 -35.71765577905418, 174.5375063202107 -35.7097830023728)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5408329194444</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.71765577905418</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5375063202107</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.7097830023728</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5391696198275</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.71371939071349</v>
       </c>
     </row>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,6 +6344,46 @@
       <c r="E291" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="n">
+        <v>383.8076923076923</v>
+      </c>
+      <c r="D292" t="n">
+        <v>384.4455555555555</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>405.1966666666667</v>
+      </c>
+      <c r="C293" t="n">
+        <v>386.8261538461539</v>
+      </c>
+      <c r="D293" t="n">
+        <v>386.3777777777778</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9646,6 +9686,26 @@
       </c>
       <c r="B328" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -9819,28 +9879,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004136381983452596</v>
+        <v>-0.00355209471589615</v>
       </c>
       <c r="J2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L2" t="n">
-        <v>1.510457904496665e-05</v>
+        <v>1.124161650456479e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.754072053601736</v>
+        <v>5.730795012620025</v>
       </c>
       <c r="N2" t="n">
-        <v>60.87679211299611</v>
+        <v>60.60579185250402</v>
       </c>
       <c r="O2" t="n">
-        <v>7.802358112327075</v>
+        <v>7.78497218058639</v>
       </c>
       <c r="P2" t="n">
-        <v>404.6321302566074</v>
+        <v>404.6262683522315</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9897,28 +9957,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06366331188727167</v>
+        <v>-0.07106124414875141</v>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003757729279620037</v>
+        <v>0.00473060018058491</v>
       </c>
       <c r="M3" t="n">
-        <v>5.580005868547342</v>
+        <v>5.577925678662938</v>
       </c>
       <c r="N3" t="n">
-        <v>55.32367800922253</v>
+        <v>55.11960991141761</v>
       </c>
       <c r="O3" t="n">
-        <v>7.437988841697904</v>
+        <v>7.424258206138686</v>
       </c>
       <c r="P3" t="n">
-        <v>392.0455391452493</v>
+        <v>392.1221241153196</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9975,28 +10035,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3168923690663425</v>
+        <v>-0.3155176648542958</v>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05751347124210748</v>
+        <v>0.05782157283327272</v>
       </c>
       <c r="M4" t="n">
-        <v>6.476631891411254</v>
+        <v>6.436422649715936</v>
       </c>
       <c r="N4" t="n">
-        <v>83.40873029998353</v>
+        <v>82.82204425208987</v>
       </c>
       <c r="O4" t="n">
-        <v>9.132838020023323</v>
+        <v>9.100661748031836</v>
       </c>
       <c r="P4" t="n">
-        <v>392.5736372869798</v>
+        <v>392.5591836614066</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10034,7 +10094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17487,6 +17547,56 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.71460415568184,174.53863908060438</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-35.71437940212359,174.53944841538402</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.714484557656405,174.53774410618885</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.714577617070674,174.5386317198479</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-35.714362935011124,174.5394414571683</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6384,6 +6384,27 @@
       <c r="E293" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>405.9566666666666</v>
+      </c>
+      <c r="C294" t="n">
+        <v>395.6430769230769</v>
+      </c>
+      <c r="D294" t="n">
+        <v>396.5177777777778</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9706,6 +9727,16 @@
       </c>
       <c r="B330" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -9879,28 +9910,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00355209471589615</v>
+        <v>-0.002322630055522737</v>
       </c>
       <c r="J2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K2" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L2" t="n">
-        <v>1.124161650456479e-05</v>
+        <v>4.849988741062461e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>5.730795012620025</v>
+        <v>5.710467737397331</v>
       </c>
       <c r="N2" t="n">
-        <v>60.60579185250402</v>
+        <v>60.34413278882385</v>
       </c>
       <c r="O2" t="n">
-        <v>7.78497218058639</v>
+        <v>7.768148607539884</v>
       </c>
       <c r="P2" t="n">
-        <v>404.6262683522315</v>
+        <v>404.6138942618604</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9957,28 +9988,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07106124414875141</v>
+        <v>-0.06718563879644071</v>
       </c>
       <c r="J3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00473060018058491</v>
+        <v>0.004254435750353114</v>
       </c>
       <c r="M3" t="n">
-        <v>5.577925678662938</v>
+        <v>5.575989120407157</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11960991141761</v>
+        <v>55.02101594568635</v>
       </c>
       <c r="O3" t="n">
-        <v>7.424258206138686</v>
+        <v>7.4176152465389</v>
       </c>
       <c r="P3" t="n">
-        <v>392.1221241153196</v>
+        <v>392.0818230259219</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10035,28 +10066,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3155176648542958</v>
+        <v>-0.3069582146969801</v>
       </c>
       <c r="J4" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05782157283327272</v>
+        <v>0.05494781880264477</v>
       </c>
       <c r="M4" t="n">
-        <v>6.436422649715936</v>
+        <v>6.452412084440034</v>
       </c>
       <c r="N4" t="n">
-        <v>82.82204425208987</v>
+        <v>83.04248298867013</v>
       </c>
       <c r="O4" t="n">
-        <v>9.100661748031836</v>
+        <v>9.112764837779483</v>
       </c>
       <c r="P4" t="n">
-        <v>392.5591836614066</v>
+        <v>392.4689108355906</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10094,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17597,6 +17628,33 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.714477752120416,174.53774314203963</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.7145000978106,174.5386102191155</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-35.71427651817216,174.53940494158914</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6403,6 +6403,25 @@
         <v>396.5177777777778</v>
       </c>
       <c r="E294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="n">
+        <v>384.7930769230769</v>
+      </c>
+      <c r="D295" t="n">
+        <v>386.23</v>
+      </c>
+      <c r="E295" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -6419,7 +6438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9737,6 +9756,16 @@
       </c>
       <c r="B331" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -9913,7 +9942,7 @@
         <v>-0.002322630055522737</v>
       </c>
       <c r="J2" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
         <v>224</v>
@@ -9988,28 +10017,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06718563879644071</v>
+        <v>-0.07118367971243025</v>
       </c>
       <c r="J3" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004254435750353114</v>
+        <v>0.004799096148275339</v>
       </c>
       <c r="M3" t="n">
-        <v>5.575989120407157</v>
+        <v>5.576826145293775</v>
       </c>
       <c r="N3" t="n">
-        <v>55.02101594568635</v>
+        <v>54.93132720888563</v>
       </c>
       <c r="O3" t="n">
-        <v>7.4176152465389</v>
+        <v>7.411567122335575</v>
       </c>
       <c r="P3" t="n">
-        <v>392.0818230259219</v>
+        <v>392.1234835212007</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10066,28 +10095,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3069582146969801</v>
+        <v>-0.3057793347724442</v>
       </c>
       <c r="J4" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05494781880264477</v>
+        <v>0.0549153407609021</v>
       </c>
       <c r="M4" t="n">
-        <v>6.452412084440034</v>
+        <v>6.434730157502216</v>
       </c>
       <c r="N4" t="n">
-        <v>83.04248298867013</v>
+        <v>82.75580777560346</v>
       </c>
       <c r="O4" t="n">
-        <v>9.112764837779483</v>
+        <v>9.097021917946744</v>
       </c>
       <c r="P4" t="n">
-        <v>392.4689108355906</v>
+        <v>392.4564520277564</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10125,7 +10154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17655,6 +17684,29 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.71459549208332,174.53863667766572</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-35.71436419442802,174.53944198933763</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6424,6 +6424,27 @@
       <c r="E295" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>402.8166666666667</v>
+      </c>
+      <c r="C296" t="n">
+        <v>382.9907692307692</v>
+      </c>
+      <c r="D296" t="n">
+        <v>379.0544444444445</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9766,6 +9787,16 @@
       </c>
       <c r="B332" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -9939,28 +9970,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.002322630055522737</v>
+        <v>-0.003825867979985914</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K2" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L2" t="n">
-        <v>4.849988741062461e-06</v>
+        <v>1.327904709969019e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.710467737397331</v>
+        <v>5.694017898684653</v>
       </c>
       <c r="N2" t="n">
-        <v>60.34413278882385</v>
+        <v>60.08916498513099</v>
       </c>
       <c r="O2" t="n">
-        <v>7.768148607539884</v>
+        <v>7.751720130727824</v>
       </c>
       <c r="P2" t="n">
-        <v>404.6138942618604</v>
+        <v>404.6291353778606</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10017,28 +10048,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07118367971243025</v>
+        <v>-0.0764258592924197</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004799096148275339</v>
+        <v>0.005549903099462461</v>
       </c>
       <c r="M3" t="n">
-        <v>5.576826145293775</v>
+        <v>5.584024474092901</v>
       </c>
       <c r="N3" t="n">
-        <v>54.93132720888563</v>
+        <v>54.92264558174822</v>
       </c>
       <c r="O3" t="n">
-        <v>7.411567122335575</v>
+        <v>7.410981418256844</v>
       </c>
       <c r="P3" t="n">
-        <v>392.1234835212007</v>
+        <v>392.1783898580065</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10095,28 +10126,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3057793347724442</v>
+        <v>-0.3096414403894805</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0549153407609021</v>
+        <v>0.05654980815449329</v>
       </c>
       <c r="M4" t="n">
-        <v>6.434730157502216</v>
+        <v>6.433185127693214</v>
       </c>
       <c r="N4" t="n">
-        <v>82.75580777560346</v>
+        <v>82.56724234742008</v>
       </c>
       <c r="O4" t="n">
-        <v>9.097021917946744</v>
+        <v>9.086651877750135</v>
       </c>
       <c r="P4" t="n">
-        <v>392.4564520277564</v>
+        <v>392.4974774298862</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10154,7 +10185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17707,6 +17738,33 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.7145058697295,174.5377471254995</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.71461133814988,174.53864107273665</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-35.714425347163754,174.53946782958195</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6443,6 +6443,88 @@
         <v>379.0544444444445</v>
       </c>
       <c r="E296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>403.0966666666666</v>
+      </c>
+      <c r="C297" t="n">
+        <v>387.93</v>
+      </c>
+      <c r="D297" t="n">
+        <v>386.8111111111111</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="n">
+        <v>389.0438461538461</v>
+      </c>
+      <c r="D298" t="n">
+        <v>389.3433333333333</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>406.35</v>
+      </c>
+      <c r="C299" t="n">
+        <v>388.8346153846153</v>
+      </c>
+      <c r="D299" t="n">
+        <v>388.65</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>397.2533333333333</v>
+      </c>
+      <c r="C300" t="n">
+        <v>379.7576923076923</v>
+      </c>
+      <c r="D300" t="n">
+        <v>377.8488888888889</v>
+      </c>
+      <c r="E300" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6459,7 +6541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9797,6 +9879,46 @@
       </c>
       <c r="B333" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -9970,28 +10092,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.003825867979985914</v>
+        <v>-0.00959521938302545</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>1.327904709969019e-05</v>
+        <v>8.545070193444193e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.694017898684653</v>
+        <v>5.669548118520648</v>
       </c>
       <c r="N2" t="n">
-        <v>60.08916498513099</v>
+        <v>59.55152702126029</v>
       </c>
       <c r="O2" t="n">
-        <v>7.751720130727824</v>
+        <v>7.71696358817769</v>
       </c>
       <c r="P2" t="n">
-        <v>404.6291353778606</v>
+        <v>404.6878533303088</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10048,28 +10170,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0764258592924197</v>
+        <v>-0.08697400544322628</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005549903099462461</v>
+        <v>0.007331377924751359</v>
       </c>
       <c r="M3" t="n">
-        <v>5.584024474092901</v>
+        <v>5.558591374944714</v>
       </c>
       <c r="N3" t="n">
-        <v>54.92264558174822</v>
+        <v>54.54512700829991</v>
       </c>
       <c r="O3" t="n">
-        <v>7.410981418256844</v>
+        <v>7.385467284356483</v>
       </c>
       <c r="P3" t="n">
-        <v>392.1783898580065</v>
+        <v>392.2892476411049</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10126,28 +10248,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3096414403894805</v>
+        <v>-0.3064074401055135</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05654980815449329</v>
+        <v>0.05673035284995209</v>
       </c>
       <c r="M4" t="n">
-        <v>6.433185127693214</v>
+        <v>6.404211062330816</v>
       </c>
       <c r="N4" t="n">
-        <v>82.56724234742008</v>
+        <v>81.72480317124915</v>
       </c>
       <c r="O4" t="n">
-        <v>9.086651877750135</v>
+        <v>9.040177164815363</v>
       </c>
       <c r="P4" t="n">
-        <v>392.4974774298862</v>
+        <v>392.4631413614283</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10185,7 +10307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17765,6 +17887,110 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-35.7145033624268,174.5377467702864</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.71456791194639,174.5386290280333</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-35.714359241984106,174.53943989667175</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.714558118901024,174.53862631183367</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-35.71433766144881,174.53943077777333</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.714474229957034,174.53774264305017</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.71455995847862,174.53862682205894</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.714343570292264,174.53943327456642</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.71455568744586,174.53775418325097</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.71463976367968,174.53864895685692</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.71443562135293,174.53947217097107</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,6 +6525,25 @@
         <v>377.8488888888889</v>
       </c>
       <c r="E300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>422.18</v>
+      </c>
+      <c r="C301" t="n">
+        <v>367.6930769230769</v>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6541,7 +6560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9919,6 +9938,16 @@
       </c>
       <c r="B337" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -10307,7 +10336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17991,6 +18020,29 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.71433247780155,174.53772256088058</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.714745836956,174.53867837745264</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -10121,28 +10121,28 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00959521938302545</v>
+        <v>0.005258704423007246</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>8.545070193444193e-05</v>
+        <v>2.532044072134365e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.669548118520648</v>
+        <v>5.710578587376717</v>
       </c>
       <c r="N2" t="n">
-        <v>59.55152702126029</v>
+        <v>60.64790242140658</v>
       </c>
       <c r="O2" t="n">
-        <v>7.71696358817769</v>
+        <v>7.78767631719543</v>
       </c>
       <c r="P2" t="n">
-        <v>404.6878533303088</v>
+        <v>404.5356630397087</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10199,28 +10199,28 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08697400544322628</v>
+        <v>-0.1025017297833026</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007331377924751359</v>
+        <v>0.009908307729761034</v>
       </c>
       <c r="M3" t="n">
-        <v>5.558591374944714</v>
+        <v>5.618714131615349</v>
       </c>
       <c r="N3" t="n">
-        <v>54.54512700829991</v>
+        <v>56.11680472232274</v>
       </c>
       <c r="O3" t="n">
-        <v>7.385467284356483</v>
+        <v>7.491115052001454</v>
       </c>
       <c r="P3" t="n">
-        <v>392.2892476411049</v>
+        <v>392.4535731500037</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10280,7 +10280,7 @@
         <v>-0.3064074401055135</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
         <v>285</v>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>408.9133333333334</v>
+        <v>408.91</v>
       </c>
       <c r="C3" t="n">
-        <v>398.1015384615384</v>
+        <v>398.1</v>
       </c>
       <c r="D3" t="n">
-        <v>400.0888888888889</v>
+        <v>400.09</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407.8466666666666</v>
+        <v>407.85</v>
       </c>
       <c r="C4" t="n">
-        <v>393.4276923076923</v>
+        <v>393.43</v>
       </c>
       <c r="D4" t="n">
-        <v>396.5311111111111</v>
+        <v>396.53</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7033333333334</v>
+        <v>382.7</v>
       </c>
       <c r="C5" t="n">
-        <v>360.9346153846154</v>
+        <v>360.93</v>
       </c>
       <c r="D5" t="n">
-        <v>380.2655555555555</v>
+        <v>380.27</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398.6233333333333</v>
+        <v>398.62</v>
       </c>
       <c r="C6" t="n">
-        <v>391.3753846153846</v>
+        <v>391.38</v>
       </c>
       <c r="D6" t="n">
-        <v>385.9355555555555</v>
+        <v>385.94</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
         <v>406.83</v>
       </c>
       <c r="C7" t="n">
-        <v>395.9523076923077</v>
+        <v>395.95</v>
       </c>
       <c r="D7" t="n">
-        <v>395.1533333333333</v>
+        <v>395.15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.8633333333333</v>
+        <v>405.86</v>
       </c>
       <c r="C8" t="n">
-        <v>388.9476923076923</v>
+        <v>388.95</v>
       </c>
       <c r="D8" t="n">
-        <v>388.3488888888889</v>
+        <v>388.35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>393.2684615384616</v>
+        <v>393.27</v>
       </c>
       <c r="D9" t="n">
-        <v>390.9555555555555</v>
+        <v>390.96</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         <v>402.27</v>
       </c>
       <c r="C10" t="n">
-        <v>393.9007692307693</v>
+        <v>393.9</v>
       </c>
       <c r="D10" t="n">
         <v>395.14</v>
@@ -656,10 +656,10 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>380.3669230769231</v>
+        <v>380.37</v>
       </c>
       <c r="D11" t="n">
-        <v>378.3766666666667</v>
+        <v>378.38</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>401.0733333333333</v>
+        <v>401.07</v>
       </c>
       <c r="C12" t="n">
-        <v>389.3092307692308</v>
+        <v>389.31</v>
       </c>
       <c r="D12" t="n">
-        <v>384.0488888888889</v>
+        <v>384.05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.3133333333333</v>
+        <v>409.31</v>
       </c>
       <c r="C13" t="n">
-        <v>390.6738461538461</v>
+        <v>390.67</v>
       </c>
       <c r="D13" t="n">
-        <v>391.0255555555556</v>
+        <v>391.03</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -717,10 +717,10 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>383.6876923076923</v>
+        <v>383.69</v>
       </c>
       <c r="D14" t="n">
-        <v>385.2222222222222</v>
+        <v>385.22</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>391.1633333333333</v>
+        <v>391.16</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -755,7 +755,7 @@
         <v>404.81</v>
       </c>
       <c r="C16" t="n">
-        <v>391.0138461538461</v>
+        <v>391.01</v>
       </c>
       <c r="D16" t="n">
         <v>386.13</v>
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407.6033333333333</v>
+        <v>407.6</v>
       </c>
       <c r="C17" t="n">
-        <v>391.3730769230769</v>
+        <v>391.37</v>
       </c>
       <c r="D17" t="n">
-        <v>393.9655555555556</v>
+        <v>393.97</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>402.1833333333333</v>
+        <v>402.18</v>
       </c>
       <c r="C18" t="n">
-        <v>387.4261538461539</v>
+        <v>387.43</v>
       </c>
       <c r="D18" t="n">
-        <v>380.3988888888889</v>
+        <v>380.4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>401.2884615384616</v>
+        <v>401.29</v>
       </c>
       <c r="D19" t="n">
-        <v>405.0077777777778</v>
+        <v>405.01</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>418.0433333333334</v>
+        <v>418.04</v>
       </c>
       <c r="C20" t="n">
-        <v>393.7469230769231</v>
+        <v>393.75</v>
       </c>
       <c r="D20" t="n">
-        <v>397.2188888888889</v>
+        <v>397.22</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -856,10 +856,10 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>386.4646153846153</v>
+        <v>386.46</v>
       </c>
       <c r="D21" t="n">
-        <v>387.1544444444445</v>
+        <v>387.15</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -877,10 +877,10 @@
         <v>404.7</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3392307692308</v>
+        <v>390.34</v>
       </c>
       <c r="D22" t="n">
-        <v>392.4433333333333</v>
+        <v>392.44</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>400.83</v>
       </c>
       <c r="D23" t="n">
-        <v>401.3333333333333</v>
+        <v>401.33</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>410.8866666666667</v>
+        <v>410.89</v>
       </c>
       <c r="C24" t="n">
-        <v>399.4407692307692</v>
+        <v>399.44</v>
       </c>
       <c r="D24" t="n">
-        <v>396.2711111111111</v>
+        <v>396.27</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>403.17</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5530769230769</v>
+        <v>393.55</v>
       </c>
       <c r="D25" t="n">
         <v>396.04</v>
@@ -961,10 +961,10 @@
         <v>411.71</v>
       </c>
       <c r="C26" t="n">
-        <v>390.4192307692308</v>
+        <v>390.42</v>
       </c>
       <c r="D26" t="n">
-        <v>382.4466666666667</v>
+        <v>382.45</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>400.1666666666666</v>
+        <v>400.17</v>
       </c>
       <c r="C27" t="n">
-        <v>385.3592307692308</v>
+        <v>385.36</v>
       </c>
       <c r="D27" t="n">
-        <v>375.9977777777778</v>
+        <v>376</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>405.0233333333333</v>
+        <v>405.02</v>
       </c>
       <c r="C28" t="n">
-        <v>387.0676923076923</v>
+        <v>387.07</v>
       </c>
       <c r="D28" t="n">
-        <v>384.9688888888889</v>
+        <v>384.97</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>404.4233333333333</v>
+        <v>404.42</v>
       </c>
       <c r="C29" t="n">
-        <v>395.5615384615385</v>
+        <v>395.56</v>
       </c>
       <c r="D29" t="n">
-        <v>388.2522222222222</v>
+        <v>388.25</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>407.1433333333334</v>
+        <v>407.14</v>
       </c>
       <c r="C30" t="n">
-        <v>399.0707692307692</v>
+        <v>399.07</v>
       </c>
       <c r="D30" t="n">
-        <v>398.9522222222223</v>
+        <v>398.95</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>413.14</v>
       </c>
       <c r="C31" t="n">
-        <v>398.6676923076923</v>
+        <v>398.67</v>
       </c>
       <c r="D31" t="n">
         <v>400.49</v>
@@ -1087,10 +1087,10 @@
         <v>410.82</v>
       </c>
       <c r="C32" t="n">
-        <v>402.5484615384616</v>
+        <v>402.55</v>
       </c>
       <c r="D32" t="n">
-        <v>391.3266666666667</v>
+        <v>391.33</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>408.3333333333334</v>
+        <v>408.33</v>
       </c>
       <c r="C33" t="n">
-        <v>391.2576923076923</v>
+        <v>391.26</v>
       </c>
       <c r="D33" t="n">
-        <v>397.1855555555555</v>
+        <v>397.19</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>396.4766666666667</v>
+        <v>396.48</v>
       </c>
       <c r="C34" t="n">
-        <v>386.3553846153847</v>
+        <v>386.36</v>
       </c>
       <c r="D34" t="n">
-        <v>383.1944444444445</v>
+        <v>383.19</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.7000000000001</v>
+        <v>390.7</v>
       </c>
       <c r="C35" t="n">
-        <v>387.3007692307692</v>
+        <v>387.3</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>403.2533333333333</v>
+        <v>403.25</v>
       </c>
       <c r="C36" t="n">
-        <v>388.5215384615385</v>
+        <v>388.52</v>
       </c>
       <c r="D36" t="n">
-        <v>385.6622222222222</v>
+        <v>385.66</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>390.0533333333333</v>
+        <v>390.05</v>
       </c>
       <c r="C37" t="n">
-        <v>386.6230769230769</v>
+        <v>386.62</v>
       </c>
       <c r="D37" t="n">
-        <v>390.2988888888889</v>
+        <v>390.3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>397.9166666666666</v>
+        <v>397.92</v>
       </c>
       <c r="C38" t="n">
-        <v>398.9084615384616</v>
+        <v>398.91</v>
       </c>
       <c r="D38" t="n">
-        <v>402.4044444444445</v>
+        <v>402.4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>408.6633333333334</v>
+        <v>408.66</v>
       </c>
       <c r="C39" t="n">
-        <v>394.4407692307692</v>
+        <v>394.44</v>
       </c>
       <c r="D39" t="n">
-        <v>392.2855555555556</v>
+        <v>392.29</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1250,11 +1250,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.7933333333334</v>
+        <v>419.79</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>394.9255555555556</v>
+        <v>394.93</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1272,10 +1272,10 @@
         <v>397.85</v>
       </c>
       <c r="C41" t="n">
-        <v>395.1946153846154</v>
+        <v>395.19</v>
       </c>
       <c r="D41" t="n">
-        <v>393.8833333333333</v>
+        <v>393.88</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1293,10 +1293,10 @@
         <v>414.67</v>
       </c>
       <c r="C42" t="n">
-        <v>405.7784615384616</v>
+        <v>405.78</v>
       </c>
       <c r="D42" t="n">
-        <v>399.3466666666667</v>
+        <v>399.35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1312,10 +1312,10 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>399.1369230769231</v>
+        <v>399.14</v>
       </c>
       <c r="D43" t="n">
-        <v>401.8011111111111</v>
+        <v>401.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>404.3566666666667</v>
+        <v>404.36</v>
       </c>
       <c r="C44" t="n">
-        <v>390.1830769230769</v>
+        <v>390.18</v>
       </c>
       <c r="D44" t="n">
-        <v>376.3211111111111</v>
+        <v>376.32</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1354,10 +1354,10 @@
         <v>408.76</v>
       </c>
       <c r="C45" t="n">
-        <v>397.3061538461538</v>
+        <v>397.31</v>
       </c>
       <c r="D45" t="n">
-        <v>397.2633333333333</v>
+        <v>397.26</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>411.8966666666666</v>
+        <v>411.9</v>
       </c>
       <c r="C46" t="n">
-        <v>389.7561538461539</v>
+        <v>389.76</v>
       </c>
       <c r="D46" t="n">
-        <v>386.9411111111111</v>
+        <v>386.94</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>400.1733333333333</v>
+        <v>400.17</v>
       </c>
       <c r="C47" t="n">
-        <v>388.8684615384615</v>
+        <v>388.87</v>
       </c>
       <c r="D47" t="n">
-        <v>387.9655555555556</v>
+        <v>387.97</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>409.6433333333333</v>
+        <v>409.64</v>
       </c>
       <c r="C48" t="n">
-        <v>390.6092307692308</v>
+        <v>390.61</v>
       </c>
       <c r="D48" t="n">
-        <v>388.6888888888889</v>
+        <v>388.69</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>396.41</v>
       </c>
       <c r="C49" t="n">
-        <v>384.5569230769231</v>
+        <v>384.56</v>
       </c>
       <c r="D49" t="n">
-        <v>383.6366666666667</v>
+        <v>383.64</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>397.0366666666667</v>
+        <v>397.04</v>
       </c>
       <c r="C50" t="n">
         <v>389.31</v>
       </c>
       <c r="D50" t="n">
-        <v>385.7644444444445</v>
+        <v>385.76</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>403.1133333333333</v>
+        <v>403.11</v>
       </c>
       <c r="C51" t="n">
-        <v>386.8692307692308</v>
+        <v>386.87</v>
       </c>
       <c r="D51" t="n">
-        <v>390.4455555555555</v>
+        <v>390.45</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1498,13 +1498,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>410.8766666666667</v>
+        <v>410.88</v>
       </c>
       <c r="C52" t="n">
         <v>406.15</v>
       </c>
       <c r="D52" t="n">
-        <v>400.7844444444444</v>
+        <v>400.78</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         <v>406.28</v>
       </c>
       <c r="C53" t="n">
-        <v>395.6846153846154</v>
+        <v>395.68</v>
       </c>
       <c r="D53" t="n">
-        <v>390.7833333333333</v>
+        <v>390.78</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>418.2833333333334</v>
+        <v>418.28</v>
       </c>
       <c r="C54" t="n">
-        <v>399.5676923076923</v>
+        <v>399.57</v>
       </c>
       <c r="D54" t="n">
-        <v>404.5288888888889</v>
+        <v>404.53</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>396.3666666666667</v>
+        <v>396.37</v>
       </c>
       <c r="C55" t="n">
-        <v>391.6069230769231</v>
+        <v>391.61</v>
       </c>
       <c r="D55" t="n">
-        <v>389.2011111111111</v>
+        <v>389.2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>406.0766666666667</v>
+        <v>406.08</v>
       </c>
       <c r="C56" t="n">
-        <v>412.1407692307693</v>
+        <v>412.14</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>425.7866666666666</v>
+        <v>425.79</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
@@ -1618,13 +1618,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>406.3833333333333</v>
+        <v>406.38</v>
       </c>
       <c r="C58" t="n">
-        <v>396.8507692307692</v>
+        <v>396.85</v>
       </c>
       <c r="D58" t="n">
-        <v>393.4922222222222</v>
+        <v>393.49</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>410.3266666666667</v>
+        <v>410.33</v>
       </c>
       <c r="C59" t="n">
-        <v>392.5046153846154</v>
+        <v>392.5</v>
       </c>
       <c r="D59" t="n">
-        <v>391.5177777777778</v>
+        <v>391.52</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>392.8653846153846</v>
+        <v>392.87</v>
       </c>
       <c r="D60" t="n">
-        <v>387.5044444444445</v>
+        <v>387.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>400.3833333333334</v>
+        <v>400.38</v>
       </c>
       <c r="C61" t="n">
-        <v>383.2269230769231</v>
+        <v>383.23</v>
       </c>
       <c r="D61" t="n">
-        <v>385.7922222222222</v>
+        <v>385.79</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>391.7966666666667</v>
+        <v>391.8</v>
       </c>
       <c r="C62" t="n">
-        <v>385.4853846153847</v>
+        <v>385.49</v>
       </c>
       <c r="D62" t="n">
-        <v>389.7511111111111</v>
+        <v>389.75</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>404.0966666666666</v>
+        <v>404.1</v>
       </c>
       <c r="C63" t="n">
         <v>388.81</v>
       </c>
       <c r="D63" t="n">
-        <v>390.9011111111111</v>
+        <v>390.9</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>406.4633333333334</v>
+        <v>406.46</v>
       </c>
       <c r="C64" t="n">
-        <v>390.8269230769231</v>
+        <v>390.83</v>
       </c>
       <c r="D64" t="n">
-        <v>387.6722222222222</v>
+        <v>387.67</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1763,13 +1763,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>404.2833333333334</v>
+        <v>404.28</v>
       </c>
       <c r="C65" t="n">
-        <v>399.6007692307692</v>
+        <v>399.6</v>
       </c>
       <c r="D65" t="n">
-        <v>385.6655555555556</v>
+        <v>385.67</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         <v>400.02</v>
       </c>
       <c r="C66" t="n">
-        <v>391.3361538461539</v>
+        <v>391.34</v>
       </c>
       <c r="D66" t="n">
-        <v>394.2433333333333</v>
+        <v>394.24</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>403.5566666666667</v>
+        <v>403.56</v>
       </c>
       <c r="C67" t="n">
-        <v>383.7092307692308</v>
+        <v>383.71</v>
       </c>
       <c r="D67" t="n">
-        <v>367.9577777777778</v>
+        <v>367.96</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>397.1533333333334</v>
+        <v>397.15</v>
       </c>
       <c r="C68" t="n">
-        <v>388.1776923076923</v>
+        <v>388.18</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>409.8433333333334</v>
+        <v>409.84</v>
       </c>
       <c r="C69" t="n">
-        <v>394.3146153846154</v>
+        <v>394.31</v>
       </c>
       <c r="D69" t="n">
-        <v>389.3888888888889</v>
+        <v>389.39</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1866,13 +1866,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>414.0833333333333</v>
+        <v>414.08</v>
       </c>
       <c r="C70" t="n">
-        <v>389.6923076923077</v>
+        <v>389.69</v>
       </c>
       <c r="D70" t="n">
-        <v>388.1222222222222</v>
+        <v>388.12</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>413.7133333333333</v>
+        <v>413.71</v>
       </c>
       <c r="C71" t="n">
-        <v>395.4323076923077</v>
+        <v>395.43</v>
       </c>
       <c r="D71" t="n">
-        <v>387.1222222222222</v>
+        <v>387.12</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1908,13 +1908,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>403.3433333333334</v>
+        <v>403.34</v>
       </c>
       <c r="C72" t="n">
-        <v>384.3115384615385</v>
+        <v>384.31</v>
       </c>
       <c r="D72" t="n">
-        <v>384.3022222222222</v>
+        <v>384.3</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>410.5633333333333</v>
+        <v>410.56</v>
       </c>
       <c r="C73" t="n">
-        <v>391.2284615384616</v>
+        <v>391.23</v>
       </c>
       <c r="D73" t="n">
-        <v>388.9488888888889</v>
+        <v>388.95</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1951,10 +1951,10 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>396.9538461538461</v>
+        <v>396.95</v>
       </c>
       <c r="D74" t="n">
-        <v>396.7622222222223</v>
+        <v>396.76</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1972,10 +1972,10 @@
         <v>401.74</v>
       </c>
       <c r="C75" t="n">
-        <v>393.4107692307692</v>
+        <v>393.41</v>
       </c>
       <c r="D75" t="n">
-        <v>387.3033333333333</v>
+        <v>387.3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>395.1266666666667</v>
+        <v>395.13</v>
       </c>
       <c r="C77" t="n">
-        <v>389.5784615384616</v>
+        <v>389.58</v>
       </c>
       <c r="D77" t="n">
-        <v>391.1544444444445</v>
+        <v>391.15</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2028,13 +2028,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>397.4333333333333</v>
+        <v>397.43</v>
       </c>
       <c r="C78" t="n">
         <v>384.73</v>
       </c>
       <c r="D78" t="n">
-        <v>380.4122222222222</v>
+        <v>380.41</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>405.1966666666667</v>
+        <v>405.2</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         <v>399.38</v>
       </c>
       <c r="C80" t="n">
-        <v>381.8653846153846</v>
+        <v>381.87</v>
       </c>
       <c r="D80" t="n">
-        <v>392.2333333333333</v>
+        <v>392.23</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2090,10 +2090,10 @@
         <v>402.73</v>
       </c>
       <c r="C81" t="n">
-        <v>399.2023076923077</v>
+        <v>399.2</v>
       </c>
       <c r="D81" t="n">
-        <v>401.7133333333333</v>
+        <v>401.71</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2108,13 +2108,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>408.4333333333333</v>
+        <v>408.43</v>
       </c>
       <c r="C82" t="n">
-        <v>387.0892307692308</v>
+        <v>387.09</v>
       </c>
       <c r="D82" t="n">
-        <v>387.1688888888889</v>
+        <v>387.17</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>408.6566666666667</v>
+        <v>408.66</v>
       </c>
       <c r="C83" t="n">
-        <v>388.6676923076923</v>
+        <v>388.67</v>
       </c>
       <c r="D83" t="n">
-        <v>385.8511111111111</v>
+        <v>385.85</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2153,10 +2153,10 @@
         <v>408.8</v>
       </c>
       <c r="C84" t="n">
-        <v>385.9192307692308</v>
+        <v>385.92</v>
       </c>
       <c r="D84" t="n">
-        <v>384.9466666666667</v>
+        <v>384.95</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>409.9966666666666</v>
+        <v>410</v>
       </c>
       <c r="C85" t="n">
-        <v>394.4569230769231</v>
+        <v>394.46</v>
       </c>
       <c r="D85" t="n">
-        <v>390.6977777777778</v>
+        <v>390.7</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>408.9166666666666</v>
+        <v>408.92</v>
       </c>
       <c r="C86" t="n">
-        <v>396.5523076923077</v>
+        <v>396.55</v>
       </c>
       <c r="D86" t="n">
-        <v>391.3144444444445</v>
+        <v>391.31</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>402.01</v>
       </c>
       <c r="C87" t="n">
-        <v>389.7238461538461</v>
+        <v>389.72</v>
       </c>
       <c r="D87" t="n">
-        <v>389.4766666666667</v>
+        <v>389.48</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2237,10 +2237,10 @@
         <v>409.5</v>
       </c>
       <c r="C88" t="n">
-        <v>394.4207692307692</v>
+        <v>394.42</v>
       </c>
       <c r="D88" t="n">
-        <v>397.2666666666667</v>
+        <v>397.27</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>395.7169230769231</v>
+        <v>395.72</v>
       </c>
       <c r="D89" t="n">
-        <v>386.0133333333333</v>
+        <v>386.01</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>408.96</v>
       </c>
       <c r="C90" t="n">
-        <v>397.7730769230769</v>
+        <v>397.77</v>
       </c>
       <c r="D90" t="n">
         <v>388.15</v>
@@ -2296,10 +2296,10 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>389.1453846153846</v>
+        <v>389.15</v>
       </c>
       <c r="D91" t="n">
-        <v>385.9644444444445</v>
+        <v>385.96</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>389.9415384615385</v>
+        <v>389.94</v>
       </c>
       <c r="D92" t="n">
-        <v>390.2455555555555</v>
+        <v>390.25</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>398.4933333333333</v>
+        <v>398.49</v>
       </c>
       <c r="C93" t="n">
-        <v>380.3584615384616</v>
+        <v>380.36</v>
       </c>
       <c r="D93" t="n">
-        <v>381.1888888888889</v>
+        <v>381.19</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2357,10 +2357,10 @@
         <v>392.22</v>
       </c>
       <c r="C94" t="n">
-        <v>382.9192307692308</v>
+        <v>382.92</v>
       </c>
       <c r="D94" t="n">
-        <v>388.2133333333333</v>
+        <v>388.21</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2395,10 +2395,10 @@
         <v>412.04</v>
       </c>
       <c r="C96" t="n">
-        <v>397.1076923076923</v>
+        <v>397.11</v>
       </c>
       <c r="D96" t="n">
-        <v>398.3633333333333</v>
+        <v>398.36</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
         <v>399.2</v>
       </c>
       <c r="C97" t="n">
-        <v>387.7015384615385</v>
+        <v>387.7</v>
       </c>
       <c r="D97" t="n">
-        <v>387.4766666666667</v>
+        <v>387.48</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>392.5407692307692</v>
+        <v>392.54</v>
       </c>
       <c r="D98" t="n">
-        <v>386.5855555555555</v>
+        <v>386.59</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>398.1033333333334</v>
+        <v>398.1</v>
       </c>
       <c r="C99" t="n">
-        <v>386.9946153846154</v>
+        <v>386.99</v>
       </c>
       <c r="D99" t="n">
-        <v>384.0855555555555</v>
+        <v>384.09</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2474,13 +2474,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>395.8466666666666</v>
+        <v>395.85</v>
       </c>
       <c r="C100" t="n">
-        <v>389.1092307692308</v>
+        <v>389.11</v>
       </c>
       <c r="D100" t="n">
-        <v>384.8344444444445</v>
+        <v>384.83</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>362.4355555555555</v>
+        <v>362.44</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>393.1669230769231</v>
+        <v>393.17</v>
       </c>
       <c r="D102" t="n">
-        <v>386.0722222222223</v>
+        <v>386.07</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>408.1269230769231</v>
+        <v>408.13</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
@@ -2549,10 +2549,10 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>388.1007692307692</v>
+        <v>388.1</v>
       </c>
       <c r="D104" t="n">
-        <v>380.7044444444445</v>
+        <v>380.7</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>408.8266666666667</v>
+        <v>408.83</v>
       </c>
       <c r="C105" t="n">
-        <v>387.1730769230769</v>
+        <v>387.17</v>
       </c>
       <c r="D105" t="n">
-        <v>387.6611111111111</v>
+        <v>387.66</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>415.1833333333333</v>
+        <v>415.18</v>
       </c>
       <c r="C106" t="n">
-        <v>393.9715384615384</v>
+        <v>393.97</v>
       </c>
       <c r="D106" t="n">
-        <v>402.4155555555556</v>
+        <v>402.42</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>408.2233333333333</v>
+        <v>408.22</v>
       </c>
       <c r="C107" t="n">
-        <v>393.5161538461539</v>
+        <v>393.52</v>
       </c>
       <c r="D107" t="n">
-        <v>394.4688888888889</v>
+        <v>394.47</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2631,10 +2631,10 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>383.4938461538461</v>
+        <v>383.49</v>
       </c>
       <c r="D108" t="n">
-        <v>383.1088888888889</v>
+        <v>383.11</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>395.4733333333334</v>
+        <v>395.47</v>
       </c>
       <c r="C109" t="n">
-        <v>379.9469230769231</v>
+        <v>379.95</v>
       </c>
       <c r="D109" t="n">
-        <v>376.5722222222223</v>
+        <v>376.57</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>389.3422222222222</v>
+        <v>389.34</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>401.82</v>
       </c>
       <c r="C111" t="n">
-        <v>394.6484615384616</v>
+        <v>394.65</v>
       </c>
       <c r="D111" t="n">
         <v>396.35</v>
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>408.9733333333333</v>
+        <v>408.97</v>
       </c>
       <c r="C112" t="n">
-        <v>392.6261538461538</v>
+        <v>392.63</v>
       </c>
       <c r="D112" t="n">
-        <v>392.6088888888889</v>
+        <v>392.61</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2730,10 +2730,10 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>385.9384615384615</v>
+        <v>385.94</v>
       </c>
       <c r="D113" t="n">
-        <v>386.9588888888889</v>
+        <v>386.96</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>404.05</v>
       </c>
       <c r="C114" t="n">
-        <v>387.8569230769231</v>
+        <v>387.86</v>
       </c>
       <c r="D114" t="n">
         <v>388.02</v>
@@ -2772,10 +2772,10 @@
         <v>395.5</v>
       </c>
       <c r="C115" t="n">
-        <v>379.3307692307693</v>
+        <v>379.33</v>
       </c>
       <c r="D115" t="n">
-        <v>371.5966666666667</v>
+        <v>371.6</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2791,10 +2791,10 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>382.9876923076923</v>
+        <v>382.99</v>
       </c>
       <c r="D116" t="n">
-        <v>383.2188888888889</v>
+        <v>383.22</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2809,13 +2809,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>405.7033333333334</v>
+        <v>405.7</v>
       </c>
       <c r="C117" t="n">
-        <v>391.5784615384616</v>
+        <v>391.58</v>
       </c>
       <c r="D117" t="n">
-        <v>390.2255555555556</v>
+        <v>390.23</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>399.0933333333334</v>
+        <v>399.09</v>
       </c>
       <c r="C118" t="n">
-        <v>382.6353846153846</v>
+        <v>382.64</v>
       </c>
       <c r="D118" t="n">
-        <v>379.3155555555555</v>
+        <v>379.32</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>396.5884615384616</v>
+        <v>396.59</v>
       </c>
       <c r="D119" t="n">
         <v>400.36</v>
@@ -2871,10 +2871,10 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>395.6753846153846</v>
+        <v>395.68</v>
       </c>
       <c r="D120" t="n">
-        <v>391.2433333333333</v>
+        <v>391.24</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2889,13 +2889,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>406.8133333333333</v>
+        <v>406.81</v>
       </c>
       <c r="C121" t="n">
-        <v>393.2930769230769</v>
+        <v>393.29</v>
       </c>
       <c r="D121" t="n">
-        <v>392.8555555555556</v>
+        <v>392.86</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>416.6733333333333</v>
+        <v>416.67</v>
       </c>
       <c r="C122" t="n">
         <v>400.25</v>
       </c>
       <c r="D122" t="n">
-        <v>404.1255555555555</v>
+        <v>404.13</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>408.2266666666666</v>
+        <v>408.23</v>
       </c>
       <c r="C123" t="n">
-        <v>392.6246153846154</v>
+        <v>392.62</v>
       </c>
       <c r="D123" t="n">
-        <v>395.7011111111111</v>
+        <v>395.7</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>381.78</v>
       </c>
       <c r="D124" t="n">
-        <v>380.0566666666667</v>
+        <v>380.06</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2976,10 +2976,10 @@
         <v>394.15</v>
       </c>
       <c r="C125" t="n">
-        <v>378.2215384615384</v>
+        <v>378.22</v>
       </c>
       <c r="D125" t="n">
-        <v>376.6133333333333</v>
+        <v>376.61</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2994,13 +2994,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>410.6966666666667</v>
+        <v>410.7</v>
       </c>
       <c r="C126" t="n">
-        <v>395.1092307692308</v>
+        <v>395.11</v>
       </c>
       <c r="D126" t="n">
-        <v>399.8877777777778</v>
+        <v>399.89</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>411.4969230769231</v>
+        <v>411.5</v>
       </c>
       <c r="D127" t="n">
-        <v>398.0433333333333</v>
+        <v>398.04</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3037,10 +3037,10 @@
         <v>402.22</v>
       </c>
       <c r="C128" t="n">
-        <v>385.9361538461538</v>
+        <v>385.94</v>
       </c>
       <c r="D128" t="n">
-        <v>386.9533333333333</v>
+        <v>386.95</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>396.5366666666667</v>
+        <v>396.54</v>
       </c>
       <c r="C129" t="n">
-        <v>389.7269230769231</v>
+        <v>389.73</v>
       </c>
       <c r="D129" t="n">
-        <v>386.3777777777778</v>
+        <v>386.38</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>390.21</v>
       </c>
       <c r="C130" t="n">
-        <v>390.0469230769231</v>
+        <v>390.05</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
@@ -3113,10 +3113,10 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>395.4907692307692</v>
+        <v>395.49</v>
       </c>
       <c r="D132" t="n">
-        <v>388.9333333333333</v>
+        <v>388.93</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>388.0823076923077</v>
+        <v>388.08</v>
       </c>
       <c r="D133" t="n">
         <v>384.35</v>
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>406.7033333333334</v>
+        <v>406.7</v>
       </c>
       <c r="C134" t="n">
-        <v>385.8207692307692</v>
+        <v>385.82</v>
       </c>
       <c r="D134" t="n">
-        <v>380.2155555555556</v>
+        <v>380.22</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3174,10 +3174,10 @@
         <v>407.83</v>
       </c>
       <c r="C135" t="n">
-        <v>390.2776923076924</v>
+        <v>390.28</v>
       </c>
       <c r="D135" t="n">
-        <v>393.5066666666667</v>
+        <v>393.51</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3193,10 +3193,10 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>392.5823076923077</v>
+        <v>392.58</v>
       </c>
       <c r="D136" t="n">
-        <v>391.7833333333333</v>
+        <v>391.78</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>408.9133333333333</v>
+        <v>408.91</v>
       </c>
       <c r="C137" t="n">
-        <v>388.1923076923077</v>
+        <v>388.19</v>
       </c>
       <c r="D137" t="n">
-        <v>386.0522222222222</v>
+        <v>386.05</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3233,10 +3233,10 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>400.4176923076923</v>
+        <v>400.42</v>
       </c>
       <c r="D138" t="n">
-        <v>408.4666666666667</v>
+        <v>408.47</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3254,10 +3254,10 @@
         <v>411.23</v>
       </c>
       <c r="C139" t="n">
-        <v>398.7561538461539</v>
+        <v>398.76</v>
       </c>
       <c r="D139" t="n">
-        <v>402.4333333333333</v>
+        <v>402.43</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         <v>408.76</v>
       </c>
       <c r="C140" t="n">
-        <v>396.7546153846154</v>
+        <v>396.75</v>
       </c>
       <c r="D140" t="n">
-        <v>386.2966666666667</v>
+        <v>386.3</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3293,13 +3293,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>407.2366666666667</v>
+        <v>407.24</v>
       </c>
       <c r="C141" t="n">
-        <v>395.3076923076923</v>
+        <v>395.31</v>
       </c>
       <c r="D141" t="n">
-        <v>397.4144444444445</v>
+        <v>397.41</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3317,10 +3317,10 @@
         <v>396.4</v>
       </c>
       <c r="C142" t="n">
-        <v>383.1961538461539</v>
+        <v>383.2</v>
       </c>
       <c r="D142" t="n">
-        <v>377.6833333333333</v>
+        <v>377.68</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>400.8966666666666</v>
+        <v>400.9</v>
       </c>
       <c r="C143" t="n">
-        <v>385.6253846153846</v>
+        <v>385.63</v>
       </c>
       <c r="D143" t="n">
-        <v>386.3444444444444</v>
+        <v>386.34</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>406.2233333333333</v>
+        <v>406.22</v>
       </c>
       <c r="C144" t="n">
-        <v>393.2638461538461</v>
+        <v>393.26</v>
       </c>
       <c r="D144" t="n">
-        <v>391.0188888888889</v>
+        <v>391.02</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3378,10 +3378,10 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>387.2915384615384</v>
+        <v>387.29</v>
       </c>
       <c r="D145" t="n">
-        <v>382.3822222222223</v>
+        <v>382.38</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3396,13 +3396,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>405.4866666666667</v>
+        <v>405.49</v>
       </c>
       <c r="C146" t="n">
-        <v>388.9130769230769</v>
+        <v>388.91</v>
       </c>
       <c r="D146" t="n">
-        <v>380.9811111111111</v>
+        <v>380.98</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>392.8776923076923</v>
+        <v>392.88</v>
       </c>
       <c r="D147" t="n">
         <v>384.84</v>
@@ -3437,10 +3437,10 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>389.8684615384615</v>
+        <v>389.87</v>
       </c>
       <c r="D148" t="n">
-        <v>386.7366666666667</v>
+        <v>386.74</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>388.7377777777778</v>
+        <v>388.74</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>412.91</v>
       </c>
       <c r="C150" t="n">
-        <v>396.4838461538461</v>
+        <v>396.48</v>
       </c>
       <c r="D150" t="n">
         <v>399.93</v>
@@ -3494,10 +3494,10 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>387.3169230769231</v>
+        <v>387.32</v>
       </c>
       <c r="D151" t="n">
-        <v>387.6977777777778</v>
+        <v>387.7</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>389.2011111111111</v>
+        <v>389.2</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3565,13 +3565,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>403.7066666666667</v>
+        <v>403.71</v>
       </c>
       <c r="C155" t="n">
-        <v>388.6584615384616</v>
+        <v>388.66</v>
       </c>
       <c r="D155" t="n">
-        <v>390.7377777777778</v>
+        <v>390.74</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3589,10 +3589,10 @@
         <v>410.67</v>
       </c>
       <c r="C156" t="n">
-        <v>392.4276923076923</v>
+        <v>392.43</v>
       </c>
       <c r="D156" t="n">
-        <v>394.8233333333333</v>
+        <v>394.82</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3608,10 +3608,10 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>388.9230769230769</v>
+        <v>388.92</v>
       </c>
       <c r="D157" t="n">
-        <v>392.3044444444445</v>
+        <v>392.3</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3629,10 +3629,10 @@
         <v>413.96</v>
       </c>
       <c r="C158" t="n">
-        <v>405.7115384615385</v>
+        <v>405.71</v>
       </c>
       <c r="D158" t="n">
-        <v>403.3366666666667</v>
+        <v>403.34</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3647,13 +3647,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>408.8466666666666</v>
+        <v>408.85</v>
       </c>
       <c r="C159" t="n">
-        <v>393.0861538461539</v>
+        <v>393.09</v>
       </c>
       <c r="D159" t="n">
-        <v>395.1044444444445</v>
+        <v>395.1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3668,13 +3668,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>400.6766666666667</v>
+        <v>400.68</v>
       </c>
       <c r="C160" t="n">
-        <v>390.2738461538461</v>
+        <v>390.27</v>
       </c>
       <c r="D160" t="n">
-        <v>390.8277777777778</v>
+        <v>390.83</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3689,13 +3689,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>402.3266666666667</v>
+        <v>402.33</v>
       </c>
       <c r="C161" t="n">
-        <v>388.7215384615384</v>
+        <v>388.72</v>
       </c>
       <c r="D161" t="n">
-        <v>383.2311111111111</v>
+        <v>383.23</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3713,10 +3713,10 @@
         <v>407.64</v>
       </c>
       <c r="C162" t="n">
-        <v>390.6338461538462</v>
+        <v>390.63</v>
       </c>
       <c r="D162" t="n">
-        <v>390.5433333333333</v>
+        <v>390.54</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>408.88</v>
       </c>
       <c r="C163" t="n">
-        <v>399.2076923076923</v>
+        <v>399.21</v>
       </c>
       <c r="D163" t="n">
         <v>385.85</v>
@@ -3752,13 +3752,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>401.2366666666667</v>
+        <v>401.24</v>
       </c>
       <c r="C164" t="n">
-        <v>385.5746153846154</v>
+        <v>385.57</v>
       </c>
       <c r="D164" t="n">
-        <v>384.0377777777778</v>
+        <v>384.04</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3773,13 +3773,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>413.3166666666667</v>
+        <v>413.32</v>
       </c>
       <c r="C165" t="n">
-        <v>396.5684615384615</v>
+        <v>396.57</v>
       </c>
       <c r="D165" t="n">
-        <v>397.3911111111111</v>
+        <v>397.39</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3797,10 +3797,10 @@
         <v>409.65</v>
       </c>
       <c r="C166" t="n">
-        <v>401.3123076923077</v>
+        <v>401.31</v>
       </c>
       <c r="D166" t="n">
-        <v>392.8166666666667</v>
+        <v>392.82</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3818,10 +3818,10 @@
         <v>412</v>
       </c>
       <c r="C167" t="n">
-        <v>396.4176923076923</v>
+        <v>396.42</v>
       </c>
       <c r="D167" t="n">
-        <v>396.4033333333333</v>
+        <v>396.4</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3836,13 +3836,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>393.0566666666667</v>
+        <v>393.06</v>
       </c>
       <c r="C168" t="n">
-        <v>383.2869230769231</v>
+        <v>383.29</v>
       </c>
       <c r="D168" t="n">
-        <v>382.1011111111111</v>
+        <v>382.1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3874,13 +3874,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>405.5066666666667</v>
+        <v>405.51</v>
       </c>
       <c r="C170" t="n">
-        <v>390.4184615384616</v>
+        <v>390.42</v>
       </c>
       <c r="D170" t="n">
-        <v>390.6511111111111</v>
+        <v>390.65</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3898,10 +3898,10 @@
         <v>405</v>
       </c>
       <c r="C171" t="n">
-        <v>389.0484615384616</v>
+        <v>389.05</v>
       </c>
       <c r="D171" t="n">
-        <v>387.1866666666667</v>
+        <v>387.19</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3919,10 +3919,10 @@
         <v>404.28</v>
       </c>
       <c r="C172" t="n">
-        <v>390.3653846153846</v>
+        <v>390.37</v>
       </c>
       <c r="D172" t="n">
-        <v>388.0433333333333</v>
+        <v>388.04</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>391.63</v>
       </c>
       <c r="D173" t="n">
-        <v>392.1455555555555</v>
+        <v>392.15</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3956,13 +3956,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>405.1033333333334</v>
+        <v>405.1</v>
       </c>
       <c r="C174" t="n">
-        <v>386.9923076923077</v>
+        <v>386.99</v>
       </c>
       <c r="D174" t="n">
-        <v>386.7788888888889</v>
+        <v>386.78</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3980,10 +3980,10 @@
         <v>417.83</v>
       </c>
       <c r="C175" t="n">
-        <v>404.6292307692308</v>
+        <v>404.63</v>
       </c>
       <c r="D175" t="n">
-        <v>398.2833333333333</v>
+        <v>398.28</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>411.7366666666667</v>
+        <v>411.74</v>
       </c>
       <c r="C176" t="n">
-        <v>393.0115384615385</v>
+        <v>393.01</v>
       </c>
       <c r="D176" t="n">
-        <v>392.0277777777778</v>
+        <v>392.03</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4019,13 +4019,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>411.0433333333334</v>
+        <v>411.04</v>
       </c>
       <c r="C177" t="n">
-        <v>398.1669230769231</v>
+        <v>398.17</v>
       </c>
       <c r="D177" t="n">
-        <v>398.3355555555555</v>
+        <v>398.34</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>396.58</v>
       </c>
       <c r="C178" t="n">
-        <v>377.6007692307692</v>
+        <v>377.6</v>
       </c>
       <c r="D178" t="n">
-        <v>344.6666666666667</v>
+        <v>344.67</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4064,10 +4064,10 @@
         <v>400.79</v>
       </c>
       <c r="C179" t="n">
-        <v>388.1561538461538</v>
+        <v>388.16</v>
       </c>
       <c r="D179" t="n">
-        <v>384.4633333333333</v>
+        <v>384.46</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4082,13 +4082,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>402.3733333333333</v>
+        <v>402.37</v>
       </c>
       <c r="C180" t="n">
-        <v>389.4923076923077</v>
+        <v>389.49</v>
       </c>
       <c r="D180" t="n">
-        <v>389.9788888888889</v>
+        <v>389.98</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4103,13 +4103,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>398.3166666666667</v>
+        <v>398.32</v>
       </c>
       <c r="C181" t="n">
-        <v>382.8930769230769</v>
+        <v>382.89</v>
       </c>
       <c r="D181" t="n">
-        <v>385.3211111111111</v>
+        <v>385.32</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>410.37</v>
       </c>
       <c r="C182" t="n">
-        <v>399.8430769230769</v>
+        <v>399.84</v>
       </c>
       <c r="D182" t="n">
         <v>399.66</v>
@@ -4148,7 +4148,7 @@
         <v>402.28</v>
       </c>
       <c r="C183" t="n">
-        <v>388.3361538461539</v>
+        <v>388.34</v>
       </c>
       <c r="D183" t="n">
         <v>387.95</v>
@@ -4169,10 +4169,10 @@
         <v>396.64</v>
       </c>
       <c r="C184" t="n">
-        <v>379.7023076923077</v>
+        <v>379.7</v>
       </c>
       <c r="D184" t="n">
-        <v>376.2033333333333</v>
+        <v>376.2</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4188,10 +4188,10 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>383.1784615384615</v>
+        <v>383.18</v>
       </c>
       <c r="D185" t="n">
-        <v>379.1066666666667</v>
+        <v>379.11</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>402.3</v>
       </c>
       <c r="C186" t="n">
-        <v>388.6469230769231</v>
+        <v>388.65</v>
       </c>
       <c r="D186" t="n">
         <v>386.11</v>
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>403.4966666666666</v>
+        <v>403.5</v>
       </c>
       <c r="C187" t="n">
-        <v>398.4123076923077</v>
+        <v>398.41</v>
       </c>
       <c r="D187" t="n">
-        <v>394.1111111111111</v>
+        <v>394.11</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4248,13 +4248,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>388.5133333333333</v>
+        <v>388.51</v>
       </c>
       <c r="C188" t="n">
-        <v>376.1369230769231</v>
+        <v>376.14</v>
       </c>
       <c r="D188" t="n">
-        <v>374.3588888888889</v>
+        <v>374.36</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>395.55</v>
       </c>
       <c r="C189" t="n">
-        <v>392.4615384615385</v>
+        <v>392.46</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
@@ -4291,10 +4291,10 @@
         <v>408.93</v>
       </c>
       <c r="C190" t="n">
-        <v>394.6146153846154</v>
+        <v>394.61</v>
       </c>
       <c r="D190" t="n">
-        <v>393.8966666666667</v>
+        <v>393.9</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4310,10 +4310,10 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>400.5438461538461</v>
+        <v>400.54</v>
       </c>
       <c r="D191" t="n">
-        <v>390.4922222222222</v>
+        <v>390.49</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>377.8561538461539</v>
+        <v>377.86</v>
       </c>
       <c r="D192" t="n">
-        <v>372.5077777777778</v>
+        <v>372.51</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4350,10 +4350,10 @@
         <v>402.82</v>
       </c>
       <c r="C193" t="n">
-        <v>385.6461538461539</v>
+        <v>385.65</v>
       </c>
       <c r="D193" t="n">
-        <v>382.5833333333333</v>
+        <v>382.58</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4368,13 +4368,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>404.4066666666667</v>
+        <v>404.41</v>
       </c>
       <c r="C194" t="n">
-        <v>390.7553846153846</v>
+        <v>390.76</v>
       </c>
       <c r="D194" t="n">
-        <v>387.6144444444445</v>
+        <v>387.61</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>406.41</v>
       </c>
       <c r="C195" t="n">
-        <v>398.0269230769231</v>
+        <v>398.03</v>
       </c>
       <c r="D195" t="n">
         <v>394.44</v>
@@ -4412,7 +4412,7 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>379.3088888888889</v>
+        <v>379.31</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>412.2666666666667</v>
+        <v>412.27</v>
       </c>
       <c r="C197" t="n">
-        <v>397.2515384615385</v>
+        <v>397.25</v>
       </c>
       <c r="D197" t="n">
-        <v>388.2711111111111</v>
+        <v>388.27</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4448,13 +4448,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>409.2733333333334</v>
+        <v>409.27</v>
       </c>
       <c r="C198" t="n">
-        <v>392.4084615384616</v>
+        <v>392.41</v>
       </c>
       <c r="D198" t="n">
-        <v>383.1688888888889</v>
+        <v>383.17</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>404.78</v>
       </c>
       <c r="C199" t="n">
-        <v>394.2830769230769</v>
+        <v>394.28</v>
       </c>
       <c r="D199" t="n">
         <v>386.57</v>
@@ -4491,10 +4491,10 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>393.0823076923077</v>
+        <v>393.08</v>
       </c>
       <c r="D200" t="n">
-        <v>385.1577777777778</v>
+        <v>385.16</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>394.8415384615385</v>
+        <v>394.84</v>
       </c>
       <c r="D201" t="n">
-        <v>393.7977777777778</v>
+        <v>393.8</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4531,10 +4531,10 @@
         <v>408.36</v>
       </c>
       <c r="C202" t="n">
-        <v>396.2507692307692</v>
+        <v>396.25</v>
       </c>
       <c r="D202" t="n">
-        <v>396.5166666666667</v>
+        <v>396.52</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>414.8566666666667</v>
+        <v>414.86</v>
       </c>
       <c r="C203" t="n">
-        <v>398.9876923076923</v>
+        <v>398.99</v>
       </c>
       <c r="D203" t="n">
-        <v>399.6277777777778</v>
+        <v>399.63</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>409.6633333333334</v>
+        <v>409.66</v>
       </c>
       <c r="C204" t="n">
-        <v>398.1184615384615</v>
+        <v>398.12</v>
       </c>
       <c r="D204" t="n">
-        <v>383.7488888888889</v>
+        <v>383.75</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4592,10 +4592,10 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>374.7984615384616</v>
+        <v>374.8</v>
       </c>
       <c r="D205" t="n">
-        <v>355.9566666666667</v>
+        <v>355.96</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>411.52</v>
       </c>
       <c r="C206" t="n">
-        <v>391.4330769230769</v>
+        <v>391.43</v>
       </c>
       <c r="D206" t="n">
         <v>385.51</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>400.6730769230769</v>
+        <v>400.67</v>
       </c>
       <c r="D207" t="n">
         <v>401.07</v>
@@ -4651,10 +4651,10 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>398.3807692307692</v>
+        <v>398.38</v>
       </c>
       <c r="D208" t="n">
-        <v>403.8155555555555</v>
+        <v>403.82</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4672,10 +4672,10 @@
         <v>396.51</v>
       </c>
       <c r="C209" t="n">
-        <v>384.2907692307692</v>
+        <v>384.29</v>
       </c>
       <c r="D209" t="n">
-        <v>381.3766666666667</v>
+        <v>381.38</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>403.7533333333334</v>
+        <v>403.75</v>
       </c>
       <c r="C210" t="n">
-        <v>389.4661538461539</v>
+        <v>389.47</v>
       </c>
       <c r="D210" t="n">
-        <v>383.3722222222222</v>
+        <v>383.37</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>398.2333333333333</v>
+        <v>398.23</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4728,13 +4728,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>401.3166666666667</v>
+        <v>401.32</v>
       </c>
       <c r="C212" t="n">
-        <v>392.2146153846153</v>
+        <v>392.21</v>
       </c>
       <c r="D212" t="n">
-        <v>384.8777777777778</v>
+        <v>384.88</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4749,13 +4749,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>396.7066666666666</v>
+        <v>396.71</v>
       </c>
       <c r="C213" t="n">
-        <v>386.0123076923077</v>
+        <v>386.01</v>
       </c>
       <c r="D213" t="n">
-        <v>385.5511111111111</v>
+        <v>385.55</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4770,13 +4770,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>408.4033333333334</v>
+        <v>408.4</v>
       </c>
       <c r="C214" t="n">
-        <v>394.5307692307693</v>
+        <v>394.53</v>
       </c>
       <c r="D214" t="n">
-        <v>392.8588888888889</v>
+        <v>392.86</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>401.47</v>
       </c>
       <c r="C215" t="n">
-        <v>389.7376923076923</v>
+        <v>389.74</v>
       </c>
       <c r="D215" t="n">
         <v>383.48</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>406.6266666666667</v>
+        <v>406.63</v>
       </c>
       <c r="C216" t="n">
-        <v>395.4392307692308</v>
+        <v>395.44</v>
       </c>
       <c r="D216" t="n">
-        <v>391.8711111111111</v>
+        <v>391.87</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4833,13 +4833,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>404.4933333333333</v>
+        <v>404.49</v>
       </c>
       <c r="C217" t="n">
-        <v>388.4523076923077</v>
+        <v>388.45</v>
       </c>
       <c r="D217" t="n">
-        <v>387.4288888888889</v>
+        <v>387.43</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4855,10 +4855,10 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>388.7569230769231</v>
+        <v>388.76</v>
       </c>
       <c r="D218" t="n">
-        <v>384.8922222222222</v>
+        <v>384.89</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>394.3788888888889</v>
+        <v>394.38</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4891,10 +4891,10 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>397.5846153846153</v>
+        <v>397.58</v>
       </c>
       <c r="D220" t="n">
-        <v>389.1011111111111</v>
+        <v>389.1</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4909,13 +4909,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>386.5033333333333</v>
+        <v>386.5</v>
       </c>
       <c r="C221" t="n">
-        <v>366.3884615384616</v>
+        <v>366.39</v>
       </c>
       <c r="D221" t="n">
-        <v>365.3722222222222</v>
+        <v>365.37</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4930,13 +4930,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>406.8933333333334</v>
+        <v>406.89</v>
       </c>
       <c r="C222" t="n">
-        <v>391.6007692307692</v>
+        <v>391.6</v>
       </c>
       <c r="D222" t="n">
-        <v>382.7455555555555</v>
+        <v>382.75</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>413.0166666666667</v>
+        <v>413.02</v>
       </c>
       <c r="C223" t="n">
-        <v>399.0215384615385</v>
+        <v>399.02</v>
       </c>
       <c r="D223" t="n">
-        <v>397.5211111111111</v>
+        <v>397.52</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4973,10 +4973,10 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>386.0353846153847</v>
+        <v>386.04</v>
       </c>
       <c r="D224" t="n">
-        <v>378.8144444444445</v>
+        <v>378.81</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -4992,10 +4992,10 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>392.4884615384616</v>
+        <v>392.49</v>
       </c>
       <c r="D225" t="n">
-        <v>383.3488888888889</v>
+        <v>383.35</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>405.6</v>
       </c>
       <c r="C226" t="n">
-        <v>387.9461538461539</v>
+        <v>387.95</v>
       </c>
       <c r="D226" t="n">
         <v>387.39</v>
@@ -5034,10 +5034,10 @@
         <v>403.09</v>
       </c>
       <c r="C227" t="n">
-        <v>398.9469230769231</v>
+        <v>398.95</v>
       </c>
       <c r="D227" t="n">
-        <v>390.3466666666667</v>
+        <v>390.35</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>405.7166666666667</v>
+        <v>405.72</v>
       </c>
       <c r="C228" t="n">
-        <v>392.4792307692308</v>
+        <v>392.48</v>
       </c>
       <c r="D228" t="n">
-        <v>390.7511111111111</v>
+        <v>390.75</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>432.8333333333334</v>
+        <v>432.83</v>
       </c>
       <c r="C229" t="n">
-        <v>418.6676923076923</v>
+        <v>418.67</v>
       </c>
       <c r="D229" t="n">
-        <v>399.6755555555556</v>
+        <v>399.68</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5095,10 +5095,10 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>388.1261538461538</v>
+        <v>388.13</v>
       </c>
       <c r="D230" t="n">
-        <v>387.3211111111111</v>
+        <v>387.32</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>389.6433333333333</v>
+        <v>389.64</v>
       </c>
       <c r="C231" t="n">
-        <v>375.7784615384616</v>
+        <v>375.78</v>
       </c>
       <c r="D231" t="n">
-        <v>372.1555555555556</v>
+        <v>372.16</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>370.1069230769231</v>
+        <v>370.11</v>
       </c>
       <c r="D232" t="n">
         <v>368.15</v>
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>411.1733333333333</v>
+        <v>411.17</v>
       </c>
       <c r="C233" t="n">
-        <v>392.2107692307693</v>
+        <v>392.21</v>
       </c>
       <c r="D233" t="n">
-        <v>378.5455555555556</v>
+        <v>378.55</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>404.97</v>
       </c>
       <c r="C234" t="n">
-        <v>389.1953846153846</v>
+        <v>389.2</v>
       </c>
       <c r="D234" t="n">
         <v>389.21</v>
@@ -5198,7 +5198,7 @@
         <v>399.65</v>
       </c>
       <c r="C235" t="n">
-        <v>384.1669230769231</v>
+        <v>384.17</v>
       </c>
       <c r="D235" t="n">
         <v>383.35</v>
@@ -5219,7 +5219,7 @@
         <v>411.65</v>
       </c>
       <c r="C236" t="n">
-        <v>400.9361538461538</v>
+        <v>400.94</v>
       </c>
       <c r="D236" t="n">
         <v>388.55</v>
@@ -5237,13 +5237,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>415.2566666666667</v>
+        <v>415.26</v>
       </c>
       <c r="C237" t="n">
-        <v>400.2992307692308</v>
+        <v>400.3</v>
       </c>
       <c r="D237" t="n">
-        <v>391.6044444444445</v>
+        <v>391.6</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5258,13 +5258,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>406.9500000000001</v>
+        <v>406.95</v>
       </c>
       <c r="C238" t="n">
-        <v>393.8792307692308</v>
+        <v>393.88</v>
       </c>
       <c r="D238" t="n">
-        <v>389.1266666666667</v>
+        <v>389.13</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="n">
-        <v>391.4822222222222</v>
+        <v>391.48</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5296,13 +5296,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>414.0633333333333</v>
+        <v>414.06</v>
       </c>
       <c r="C240" t="n">
-        <v>399.9307692307692</v>
+        <v>399.93</v>
       </c>
       <c r="D240" t="n">
-        <v>398.7155555555556</v>
+        <v>398.72</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5317,13 +5317,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>406.6666666666666</v>
+        <v>406.67</v>
       </c>
       <c r="C241" t="n">
-        <v>395.7676923076923</v>
+        <v>395.77</v>
       </c>
       <c r="D241" t="n">
-        <v>397.0444444444445</v>
+        <v>397.04</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="n">
-        <v>341.2088888888889</v>
+        <v>341.21</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5356,10 +5356,10 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>385.5607692307692</v>
+        <v>385.56</v>
       </c>
       <c r="D243" t="n">
-        <v>378.4033333333333</v>
+        <v>378.4</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5374,13 +5374,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>415.0433333333334</v>
+        <v>415.04</v>
       </c>
       <c r="C244" t="n">
         <v>403.26</v>
       </c>
       <c r="D244" t="n">
-        <v>403.5122222222223</v>
+        <v>403.51</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5396,10 +5396,10 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>386.2161538461539</v>
+        <v>386.22</v>
       </c>
       <c r="D245" t="n">
-        <v>380.8655555555556</v>
+        <v>380.87</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5415,10 +5415,10 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>384.3938461538461</v>
+        <v>384.39</v>
       </c>
       <c r="D246" t="n">
-        <v>356.5977777777778</v>
+        <v>356.6</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>407.6733333333333</v>
+        <v>407.67</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>395.7766666666666</v>
+        <v>395.78</v>
       </c>
       <c r="C248" t="n">
-        <v>375.1030769230769</v>
+        <v>375.1</v>
       </c>
       <c r="D248" t="n">
-        <v>371.8311111111111</v>
+        <v>371.83</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5471,13 +5471,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>406.4866666666667</v>
+        <v>406.49</v>
       </c>
       <c r="C249" t="n">
-        <v>385.0430769230769</v>
+        <v>385.04</v>
       </c>
       <c r="D249" t="n">
-        <v>380.6177777777777</v>
+        <v>380.62</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5492,10 +5492,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>373.8333333333334</v>
+        <v>373.83</v>
       </c>
       <c r="C250" t="n">
-        <v>370.9746153846153</v>
+        <v>370.97</v>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
@@ -5514,7 +5514,7 @@
         <v>405.11</v>
       </c>
       <c r="C251" t="n">
-        <v>391.5492307692308</v>
+        <v>391.55</v>
       </c>
       <c r="D251" t="n">
         <v>383.68</v>
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>399.1533333333333</v>
+        <v>399.15</v>
       </c>
       <c r="C252" t="n">
-        <v>376.7246153846153</v>
+        <v>376.72</v>
       </c>
       <c r="D252" t="n">
-        <v>377.7822222222222</v>
+        <v>377.78</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5556,10 +5556,10 @@
         <v>408.11</v>
       </c>
       <c r="C253" t="n">
-        <v>398.3546153846154</v>
+        <v>398.35</v>
       </c>
       <c r="D253" t="n">
-        <v>388.7633333333333</v>
+        <v>388.76</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>403.52</v>
       </c>
       <c r="C254" t="n">
-        <v>381.0715384615385</v>
+        <v>381.07</v>
       </c>
       <c r="D254" t="n">
         <v>355.94</v>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>405.9933333333333</v>
+        <v>405.99</v>
       </c>
       <c r="C255" t="n">
         <v>396.76</v>
       </c>
       <c r="D255" t="n">
-        <v>393.0255555555556</v>
+        <v>393.03</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5616,13 +5616,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>417.9366666666667</v>
+        <v>417.94</v>
       </c>
       <c r="C256" t="n">
-        <v>393.0346153846153</v>
+        <v>393.03</v>
       </c>
       <c r="D256" t="n">
-        <v>353.2711111111111</v>
+        <v>353.27</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>411.0833333333334</v>
+        <v>411.08</v>
       </c>
       <c r="C257" t="n">
-        <v>392.0276923076924</v>
+        <v>392.03</v>
       </c>
       <c r="D257" t="n">
-        <v>386.4922222222222</v>
+        <v>386.49</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
-        <v>391.2038461538461</v>
+        <v>391.2</v>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
@@ -5677,7 +5677,7 @@
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="n">
-        <v>379.1866666666667</v>
+        <v>379.19</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>406.8833333333333</v>
+        <v>406.88</v>
       </c>
       <c r="C260" t="n">
-        <v>388.2884615384616</v>
+        <v>388.29</v>
       </c>
       <c r="D260" t="n">
-        <v>389.8788888888889</v>
+        <v>389.88</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>410.19</v>
       </c>
       <c r="C261" t="n">
-        <v>394.0084615384616</v>
+        <v>394.01</v>
       </c>
       <c r="D261" t="n">
         <v>384.12</v>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>402.9333333333333</v>
+        <v>402.93</v>
       </c>
       <c r="C263" t="n">
-        <v>390.2961538461539</v>
+        <v>390.3</v>
       </c>
       <c r="D263" t="n">
-        <v>388.4222222222222</v>
+        <v>388.42</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5776,13 +5776,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>405.7733333333333</v>
+        <v>405.77</v>
       </c>
       <c r="C264" t="n">
-        <v>397.0776923076923</v>
+        <v>397.08</v>
       </c>
       <c r="D264" t="n">
-        <v>391.4788888888889</v>
+        <v>391.48</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -5798,10 +5798,10 @@
       </c>
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="n">
-        <v>417.5830769230769</v>
+        <v>417.58</v>
       </c>
       <c r="D265" t="n">
-        <v>375.9577777777778</v>
+        <v>375.96</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5816,13 +5816,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>411.1566666666666</v>
+        <v>411.16</v>
       </c>
       <c r="C266" t="n">
-        <v>391.6461538461539</v>
+        <v>391.65</v>
       </c>
       <c r="D266" t="n">
-        <v>382.7744444444445</v>
+        <v>382.77</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>397.9366666666667</v>
+        <v>397.94</v>
       </c>
       <c r="C267" t="n">
-        <v>385.2815384615385</v>
+        <v>385.28</v>
       </c>
       <c r="D267" t="n">
-        <v>386.0111111111111</v>
+        <v>386.01</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="n">
-        <v>386.5177777777778</v>
+        <v>386.52</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -5875,13 +5875,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>387.0066666666667</v>
+        <v>387.01</v>
       </c>
       <c r="C269" t="n">
-        <v>375.4607692307693</v>
+        <v>375.46</v>
       </c>
       <c r="D269" t="n">
-        <v>368.9044444444445</v>
+        <v>368.9</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -5896,13 +5896,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>408.6866666666667</v>
+        <v>408.69</v>
       </c>
       <c r="C270" t="n">
-        <v>389.7661538461539</v>
+        <v>389.77</v>
       </c>
       <c r="D270" t="n">
-        <v>385.2644444444445</v>
+        <v>385.26</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>406.43</v>
       </c>
       <c r="C271" t="n">
-        <v>395.0861538461539</v>
+        <v>395.09</v>
       </c>
       <c r="D271" t="n">
         <v>390.53</v>
@@ -5941,10 +5941,10 @@
         <v>403.41</v>
       </c>
       <c r="C272" t="n">
-        <v>395.4484615384616</v>
+        <v>395.45</v>
       </c>
       <c r="D272" t="n">
-        <v>399.6566666666667</v>
+        <v>399.66</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>407.6566666666667</v>
+        <v>407.66</v>
       </c>
       <c r="C273" t="n">
-        <v>397.0276923076924</v>
+        <v>397.03</v>
       </c>
       <c r="D273" t="n">
-        <v>385.8177777777778</v>
+        <v>385.82</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -5980,13 +5980,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>402.5533333333333</v>
+        <v>402.55</v>
       </c>
       <c r="C274" t="n">
-        <v>386.9530769230769</v>
+        <v>386.95</v>
       </c>
       <c r="D274" t="n">
-        <v>385.7688888888889</v>
+        <v>385.77</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>404.8766666666667</v>
+        <v>404.88</v>
       </c>
       <c r="C275" t="n">
-        <v>390.7723076923077</v>
+        <v>390.77</v>
       </c>
       <c r="D275" t="n">
-        <v>391.2277777777778</v>
+        <v>391.23</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6023,10 +6023,10 @@
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
-        <v>399.0338461538461</v>
+        <v>399.03</v>
       </c>
       <c r="D276" t="n">
-        <v>392.3355555555555</v>
+        <v>392.34</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6041,13 +6041,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>400.5033333333333</v>
+        <v>400.5</v>
       </c>
       <c r="C277" t="n">
         <v>385.56</v>
       </c>
       <c r="D277" t="n">
-        <v>382.5755555555555</v>
+        <v>382.58</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6063,10 +6063,10 @@
       </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
-        <v>382.4846153846154</v>
+        <v>382.48</v>
       </c>
       <c r="D278" t="n">
-        <v>367.7666666666667</v>
+        <v>367.77</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6081,13 +6081,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>402.7866666666666</v>
+        <v>402.79</v>
       </c>
       <c r="C279" t="n">
-        <v>387.4176923076923</v>
+        <v>387.42</v>
       </c>
       <c r="D279" t="n">
-        <v>376.4111111111111</v>
+        <v>376.41</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>402.6266666666667</v>
+        <v>402.63</v>
       </c>
       <c r="C280" t="n">
-        <v>387.0684615384615</v>
+        <v>387.07</v>
       </c>
       <c r="D280" t="n">
-        <v>381.0544444444445</v>
+        <v>381.05</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>412.88</v>
       </c>
       <c r="C281" t="n">
-        <v>397.8892307692308</v>
+        <v>397.89</v>
       </c>
       <c r="D281" t="n">
-        <v>399.1466666666667</v>
+        <v>399.15</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>407.3066666666666</v>
+        <v>407.31</v>
       </c>
       <c r="C282" t="n">
-        <v>396.1984615384616</v>
+        <v>396.2</v>
       </c>
       <c r="D282" t="n">
-        <v>393.7444444444445</v>
+        <v>393.74</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6168,10 +6168,10 @@
         <v>408.88</v>
       </c>
       <c r="C283" t="n">
-        <v>398.1992307692308</v>
+        <v>398.2</v>
       </c>
       <c r="D283" t="n">
-        <v>401.2366666666667</v>
+        <v>401.24</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6186,13 +6186,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>403.4166666666666</v>
+        <v>403.42</v>
       </c>
       <c r="C284" t="n">
-        <v>385.8815384615385</v>
+        <v>385.88</v>
       </c>
       <c r="D284" t="n">
-        <v>391.1477777777778</v>
+        <v>391.15</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>391.6233333333333</v>
+        <v>391.62</v>
       </c>
       <c r="C285" t="n">
         <v>381.7</v>
       </c>
       <c r="D285" t="n">
-        <v>383.0322222222222</v>
+        <v>383.03</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6231,10 +6231,10 @@
         <v>395.07</v>
       </c>
       <c r="C286" t="n">
-        <v>386.0376923076923</v>
+        <v>386.04</v>
       </c>
       <c r="D286" t="n">
-        <v>380.0466666666667</v>
+        <v>380.05</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>414.3866666666667</v>
+        <v>414.39</v>
       </c>
       <c r="C287" t="n">
         <v>399</v>
       </c>
       <c r="D287" t="n">
-        <v>387.7244444444444</v>
+        <v>387.72</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6273,10 +6273,10 @@
         <v>400.79</v>
       </c>
       <c r="C288" t="n">
-        <v>386.2523076923077</v>
+        <v>386.25</v>
       </c>
       <c r="D288" t="n">
-        <v>381.3333333333333</v>
+        <v>381.33</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>407.8833333333333</v>
+        <v>407.88</v>
       </c>
       <c r="C289" t="n">
-        <v>392.6138461538461</v>
+        <v>392.61</v>
       </c>
       <c r="D289" t="n">
-        <v>382.1988888888889</v>
+        <v>382.2</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>406.6933333333333</v>
+        <v>406.69</v>
       </c>
       <c r="C290" t="n">
-        <v>390.5569230769231</v>
+        <v>390.56</v>
       </c>
       <c r="D290" t="n">
-        <v>388.0888888888889</v>
+        <v>388.09</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>404.9766666666666</v>
+        <v>404.98</v>
       </c>
       <c r="C291" t="n">
-        <v>384.7607692307692</v>
+        <v>384.76</v>
       </c>
       <c r="D291" t="n">
-        <v>383.2611111111111</v>
+        <v>383.26</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6355,10 +6355,10 @@
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
-        <v>383.8076923076923</v>
+        <v>383.81</v>
       </c>
       <c r="D292" t="n">
-        <v>384.4455555555555</v>
+        <v>384.45</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6373,13 +6373,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>405.1966666666667</v>
+        <v>405.2</v>
       </c>
       <c r="C293" t="n">
-        <v>386.8261538461539</v>
+        <v>386.83</v>
       </c>
       <c r="D293" t="n">
-        <v>386.3777777777778</v>
+        <v>386.38</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6394,13 +6394,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>405.9566666666666</v>
+        <v>405.96</v>
       </c>
       <c r="C294" t="n">
-        <v>395.6430769230769</v>
+        <v>395.64</v>
       </c>
       <c r="D294" t="n">
-        <v>396.5177777777778</v>
+        <v>396.52</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
-        <v>384.7930769230769</v>
+        <v>384.79</v>
       </c>
       <c r="D295" t="n">
         <v>386.23</v>
@@ -6434,13 +6434,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>402.8166666666667</v>
+        <v>402.82</v>
       </c>
       <c r="C296" t="n">
-        <v>382.9907692307692</v>
+        <v>382.99</v>
       </c>
       <c r="D296" t="n">
-        <v>379.0544444444445</v>
+        <v>379.05</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6455,13 +6455,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>403.0966666666666</v>
+        <v>403.1</v>
       </c>
       <c r="C297" t="n">
         <v>387.93</v>
       </c>
       <c r="D297" t="n">
-        <v>386.8111111111111</v>
+        <v>386.81</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6477,10 +6477,10 @@
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
-        <v>389.0438461538461</v>
+        <v>389.04</v>
       </c>
       <c r="D298" t="n">
-        <v>389.3433333333333</v>
+        <v>389.34</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>406.35</v>
       </c>
       <c r="C299" t="n">
-        <v>388.8346153846153</v>
+        <v>388.83</v>
       </c>
       <c r="D299" t="n">
         <v>388.65</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>397.2533333333333</v>
+        <v>397.25</v>
       </c>
       <c r="C300" t="n">
-        <v>379.7576923076923</v>
+        <v>379.76</v>
       </c>
       <c r="D300" t="n">
-        <v>377.8488888888889</v>
+        <v>377.85</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>422.18</v>
       </c>
       <c r="C301" t="n">
-        <v>367.6930769230769</v>
+        <v>367.69</v>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
@@ -10121,7 +10121,7 @@
         <v>0.0834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005258704423007246</v>
+        <v>0.005316737546604458</v>
       </c>
       <c r="J2" t="n">
         <v>300</v>
@@ -10130,19 +10130,19 @@
         <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>2.532044072134365e-05</v>
+        <v>2.588219470656128e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.710578587376717</v>
+        <v>5.710491762234944</v>
       </c>
       <c r="N2" t="n">
-        <v>60.64790242140658</v>
+        <v>60.64829896551399</v>
       </c>
       <c r="O2" t="n">
-        <v>7.78767631719543</v>
+        <v>7.7877017768732</v>
       </c>
       <c r="P2" t="n">
-        <v>404.5356630397087</v>
+        <v>404.5346492918773</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10199,7 +10199,7 @@
         <v>0.068</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1025017297833026</v>
+        <v>-0.1025208352187143</v>
       </c>
       <c r="J3" t="n">
         <v>300</v>
@@ -10208,19 +10208,19 @@
         <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009908307729761034</v>
+        <v>0.009912030782099235</v>
       </c>
       <c r="M3" t="n">
-        <v>5.618714131615349</v>
+        <v>5.618480568282206</v>
       </c>
       <c r="N3" t="n">
-        <v>56.11680472232274</v>
+        <v>56.11642916959919</v>
       </c>
       <c r="O3" t="n">
-        <v>7.491115052001454</v>
+        <v>7.491089985415953</v>
       </c>
       <c r="P3" t="n">
-        <v>392.4535731500037</v>
+        <v>392.4540971191074</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10277,7 +10277,7 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3064074401055135</v>
+        <v>-0.3064028558564642</v>
       </c>
       <c r="J4" t="n">
         <v>300</v>
@@ -10286,19 +10286,19 @@
         <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05673035284995209</v>
+        <v>0.05673023659064835</v>
       </c>
       <c r="M4" t="n">
-        <v>6.404211062330816</v>
+        <v>6.404158739771741</v>
       </c>
       <c r="N4" t="n">
-        <v>81.72480317124915</v>
+        <v>81.72253532236026</v>
       </c>
       <c r="O4" t="n">
-        <v>9.040177164815363</v>
+        <v>9.040051732283409</v>
       </c>
       <c r="P4" t="n">
-        <v>392.4631413614283</v>
+        <v>392.4631857914048</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10402,17 +10402,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.71445127619733,174.53773939116255</t>
+          <t>-35.714451306046165,174.53773939539127</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.714478482772456,174.53860422397935</t>
+          <t>-35.71447849629877,174.538604227731</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-35.71424608383604,174.5393920815307</t>
+          <t>-35.71424607436674,174.53939207752944</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -10429,17 +10429,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.71446082782688,174.5377407443535</t>
+          <t>-35.71446079797805,174.53774074012478</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.714519575691895,174.53861562149393</t>
+          <t>-35.714519555402426,174.53861561586643</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-35.71427640454054,174.539404893574</t>
+          <t>-35.714276414009845,174.53940489757522</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -10456,17 +10456,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.714685977633884,174.53777264170725</t>
+          <t>-35.714686007482726,174.53777264593597</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.71480525800488,174.53869485857496</t>
+          <t>-35.7148052985838,174.53869486983</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-35.714415025627865,174.53946346818756</t>
+          <t>-35.71441498775067,174.53946345218245</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -10483,17 +10483,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-35.71454341957214,174.53775244524175</t>
+          <t>-35.714543449420965,174.5377524494705</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.71453761978437,174.53862062619976</t>
+          <t>-35.71453757920544,174.5386206149448</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-35.71436670379252,174.53944304967513</t>
+          <t>-35.71436666591532,174.53944303367004</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -10515,12 +10515,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.714497379022966,174.53860946503372</t>
+          <t>-35.71449739931243,174.53860947066119</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-35.71428814647435,174.53940985514248</t>
+          <t>-35.71428817488226,174.53940986714628</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -10537,17 +10537,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.71447858788798,174.5377432604439</t>
+          <t>-35.71447861773684,174.53774326467263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.71455896429515,174.5386265463122</t>
+          <t>-35.71455894400568,174.5386265406847</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-35.714346136472656,174.539434358911</t>
+          <t>-35.714346127003346,174.5394343549097</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -10565,12 +10565,12 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.71452097566459,174.53861600979</t>
+          <t>-35.71452096213828,174.53861600603832</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-35.714323921493666,174.53942497193063</t>
+          <t>-35.71432388361646,174.53942495592554</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-35.714515416352675,174.53861446786078</t>
+          <t>-35.71451542311584,174.53861446973661</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10615,12 +10615,12 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.714634407263006,174.53864747119783</t>
+          <t>-35.71463438021039,174.5386474636945</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-35.71443112343602,174.53947027036278</t>
+          <t>-35.71443109502814,174.53947025835896</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -10637,17 +10637,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.71452148067369,174.53774933712455</t>
+          <t>-35.71452151052253,174.5377493413533</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.71455578561328,174.5386256646729</t>
+          <t>-35.71455577885012,174.5386256627971</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-35.71438278266357,174.53944984383926</t>
+          <t>-35.714382773194274,174.539449839838</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -10664,17 +10664,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.71444769433623,174.53773888371603</t>
+          <t>-35.714447724185085,174.53773888794476</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.71454378777992,174.53862233695435</t>
+          <t>-35.71454382159568,174.53862234633348</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-35.71432332492771,174.5394247198507</t>
+          <t>-35.714323287050526,174.5394247038456</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -10692,12 +10692,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.71460521073365,174.53863937323396</t>
+          <t>-35.71460519044419,174.53863936760646</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-35.71437278308304,174.53944561849303</t>
+          <t>-35.71437280202164,174.5394456264956</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.714610221277994,174.53776190915326</t>
+          <t>-35.714610251126835,174.537761913382</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.714540798466295,174.5386215078386</t>
+          <t>-35.714540832282054,174.53862151721773</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10760,17 +10760,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.714463006792364,174.53774105305024</t>
+          <t>-35.71446303664121,174.53774105727894</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.71453764007382,174.53862063182726</t>
+          <t>-35.714537667126436,174.53862063933056</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-35.7142982691574,174.53941413249586</t>
+          <t>-35.7142982312802,174.5394141164908</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -10787,17 +10787,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.714511541009436,174.53774792895786</t>
+          <t>-35.71451157085827,174.53774793318655</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.7145723418115,174.53863025670123</t>
+          <t>-35.71457230799574,174.5386302473221</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-35.714413889311984,174.53946298803413</t>
+          <t>-35.71441387984268,174.53946298403284</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -10815,12 +10815,12 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.71445046302741,174.53859645244225</t>
+          <t>-35.71445044950111,174.5385964486906</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-35.71420416323391,174.53937436795724</t>
+          <t>-35.7142041442953,174.5393743599547</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -10837,17 +10837,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.71436952021654,174.53772780870864</t>
+          <t>-35.714369550065385,174.53772781293736</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.71451676898333,174.538614843026</t>
+          <t>-35.714516741930694,174.5386148355227</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-35.71427054304284,174.53940241679155</t>
+          <t>-35.71427053357355,174.53940241279028</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -10865,12 +10865,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.71458079575247,174.53863260148768</t>
+          <t>-35.7145808363314,174.53863261274265</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-35.71435631597039,174.53943866027848</t>
+          <t>-35.71435635384759,174.53943867628357</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -10892,12 +10892,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.71454672975147,174.53862315293935</t>
+          <t>-35.71454672298831,174.53862315106352</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-35.71431124209985,174.539419614232</t>
+          <t>-35.714311270507764,174.5394196262358</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-35.71423547821758,174.53938760011883</t>
+          <t>-35.71423550662547,174.5393876121226</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -10941,17 +10941,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.714433605682544,174.53773688776025</t>
+          <t>-35.71443357583371,174.53773688353152</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.71446670812227,174.5386009581698</t>
+          <t>-35.71446671488542,174.5386009600456</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-35.7142786203571,174.53940582986985</t>
+          <t>-35.71427862982641,174.53940583387111</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.71451847329791,174.53861531573423</t>
+          <t>-35.71451850035053,174.53861532323754</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.71454602638355,174.53862295785328</t>
+          <t>-35.7145460196204,174.53862295597744</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-35.714396437393475,174.53945561367937</t>
+          <t>-35.714396408985586,174.5394556016755</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -11022,17 +11022,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-35.714529599558574,174.53775048733914</t>
+          <t>-35.71452956970973,174.53775048311041</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.71459051440294,174.53863529705487</t>
+          <t>-35.7145905076398,174.53863529517903</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-35.71445139720433,174.53947883710634</t>
+          <t>-35.71445137826573,174.53947882910379</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -11049,17 +11049,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.71448610979619,174.53774432608256</t>
+          <t>-35.714486139645025,174.53774433031128</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.714575493440705,174.53863113083756</t>
+          <t>-35.714575473151235,174.53863112521006</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-35.7143749420834,174.5394465307836</t>
+          <t>-35.714374932614106,174.5394465267823</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -11076,17 +11076,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.71449148258774,174.53774508725317</t>
+          <t>-35.71449151243658,174.53774509148192</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.71450081470484,174.53861041795298</t>
+          <t>-35.71450082823114,174.53861042170462</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-35.71434696030178,174.53943470702163</t>
+          <t>-35.71434697924038,174.53943471502416</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -11103,17 +11103,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.7144671259326,174.537741636614</t>
+          <t>-35.71446715578144,174.53774164084268</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.7144699611991,174.53860186044102</t>
+          <t>-35.71446996796226,174.53860186231688</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-35.71425577093202,174.53939617482138</t>
+          <t>-35.71425578987062,174.5393961828239</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.71447350509152,174.5386028433728</t>
+          <t>-35.714473484802056,174.53860283774532</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -11162,12 +11162,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.71443938498173,174.53859337984483</t>
+          <t>-35.71443937145541,174.5385933760932</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-35.71432075874721,174.53942363550678</t>
+          <t>-35.71432073033932,174.53942362350296</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -11184,17 +11184,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.7144564698959,174.53774012696007</t>
+          <t>-35.71445649974475,174.5377401311888</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.71453865454678,174.53862091320133</t>
+          <t>-35.71453863425731,174.53862090757386</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-35.714270827121894,174.53940253682947</t>
+          <t>-35.71427078924468,174.5394025208244</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -11211,17 +11211,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-35.714562642225836,174.537755168546</t>
+          <t>-35.714562612377,174.53775516431728</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.71458175612016,174.53863286785545</t>
+          <t>-35.71458171554126,174.5386328566005</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-35.71439006455495,174.5394529208203</t>
+          <t>-35.714390102432134,174.53945293682543</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.714573444205406,174.53863056246135</t>
+          <t>-35.71457345096855,174.53863056433718</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -11261,17 +11261,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.71450195953123,174.53774657153622</t>
+          <t>-35.714501989380075,174.53774657576494</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.71456271108184,174.5386275855211</t>
+          <t>-35.71456272460815,174.53862758927275</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-35.714369033240295,174.53944403398847</t>
+          <t>-35.714369052178895,174.53944404199103</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -11288,17 +11288,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.71462016094185,174.53776331732394</t>
+          <t>-35.714620190790676,174.53776332155266</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.71457940254301,174.53863221506683</t>
+          <t>-35.714579429595624,174.53863222257016</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-35.714329517850345,174.53942733668094</t>
+          <t>-35.71432950838105,174.53942733267968</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -11315,17 +11315,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.71454974752647,174.53775334173304</t>
+          <t>-35.714549717677635,174.5377533375043</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-35.71447138822448,174.53860225623987</t>
+          <t>-35.71447137469818,174.53860225248823</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-35.71422634981007,174.53938374290462</t>
+          <t>-35.714226387687276,174.53938375890965</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -11342,17 +11342,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-35.71445351486051,174.53773970831665</t>
+          <t>-35.71445354470936,174.53773971254537</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.71451066861913,174.53861315103092</t>
+          <t>-35.714510675382286,174.53861315290678</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-35.7143125867406,174.53942018241207</t>
+          <t>-35.71431254886338,174.53942016640698</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -11369,13 +11369,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.714353849573676,174.53772558863568</t>
+          <t>-35.71435387942252,174.53772559286438</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-35.714290087681135,174.5394106754019</t>
+          <t>-35.71429004980392,174.53941065939685</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -11397,12 +11397,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-35.71450404072896,174.5386113127217</t>
+          <t>-35.71450408130788,174.53861132397668</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-35.71429896988569,174.5394144285896</t>
+          <t>-35.7142989982936,174.5394144405934</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -11424,12 +11424,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.714410986499004,174.53858550326984</t>
+          <t>-35.71441097297269,174.53858549951818</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-35.71425240932982,174.53939475437338</t>
+          <t>-35.71425238092192,174.53939474236958</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -11447,12 +11447,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-35.714469379567895,174.5386016991202</t>
+          <t>-35.71446935251528,174.5386016916169</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-35.71423149164129,174.53938591558844</t>
+          <t>-35.714231501110596,174.5393859195897</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -11469,17 +11469,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.71449207956457,174.5377451718277</t>
+          <t>-35.71449204971573,174.53774516759896</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.714548102671515,174.53862353373236</t>
+          <t>-35.714548129724136,174.5386235412357</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-35.71444864163847,174.5394776727332</t>
+          <t>-35.71444865110778,174.5394776767345</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -11501,12 +11501,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-35.71448547587309,174.53860616358185</t>
+          <t>-35.714485442057324,174.5386061542027</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-35.71427016427078,174.539402256741</t>
+          <t>-35.71427019267868,174.5394022687448</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -11523,17 +11523,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-35.71442456148321,174.53773560645854</t>
+          <t>-35.714424531634364,174.53773560222982</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.71455185622141,174.53862457481685</t>
+          <t>-35.71455182240565,174.5386245654377</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-35.71435813407601,174.53943942852283</t>
+          <t>-35.714358143545304,174.53943943252412</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -11550,17 +11550,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-35.71452953986089,174.5377504788817</t>
+          <t>-35.71452956970973,174.53775048311041</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.714559660899894,174.53862673952253</t>
+          <t>-35.71455964737358,174.53862673577083</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-35.714349403381256,174.53943573934976</t>
+          <t>-35.71434936550405,174.53943572334467</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.71444473930083,174.5377384650727</t>
+          <t>-35.71444476914967,174.53773846930142</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.71454435588477,174.53862249452388</t>
+          <t>-35.71454434912162,174.53862249264802</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-35.71434323886675,174.53943313452194</t>
+          <t>-35.71434322939745,174.53943313052068</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -11609,12 +11609,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.71459756837118,174.5386372535456</t>
+          <t>-35.714597541318575,174.53863724604227</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-35.714386295773735,174.5394513283125</t>
+          <t>-35.71438626736583,174.53945131630866</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.714557627620536,174.53775445811866</t>
+          <t>-35.714557597771694,174.53775445388993</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-35.71436816206471,174.5394436658713</t>
+          <t>-35.71436819994191,174.53944368187638</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -11658,17 +11658,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.71450321318259,174.53774674914277</t>
+          <t>-35.71450324303144,174.53774675337147</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.71457723833413,174.5386316148015</t>
+          <t>-35.71457723157097,174.53863161292566</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-35.71432826790267,174.53942680851333</t>
+          <t>-35.714328230025465,174.53942679250827</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.71443369522908,174.5377369004464</t>
+          <t>-35.71443366538023,174.53773689621767</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-35.714240156052895,174.53938957674143</t>
+          <t>-35.71424019393011,174.53938959274646</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -11717,12 +11717,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-35.714499732600316,174.5386101178209</t>
+          <t>-35.714499773179234,174.53861012907586</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-35.71432538923527,174.53942559212737</t>
+          <t>-35.714325417643174,174.5394256041312</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -11739,17 +11739,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.71436737109981,174.53772750424145</t>
+          <t>-35.71436740094865,174.53772750847017</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.71446559220194,174.53860064865887</t>
+          <t>-35.714465571912484,174.5386006430314</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-35.714208244503425,174.539376092499</t>
+          <t>-35.71420823503412,174.53937608849773</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -11766,17 +11766,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-35.71456362723759,174.53775530809423</t>
+          <t>-35.714563597388754,174.5377553038655</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.71453558407529,174.53862006157578</t>
+          <t>-35.71453555702268,174.53862005407248</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-35.71433887351927,174.539431289936</t>
+          <t>-35.71433888298858,174.53943129393727</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -11793,12 +11793,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-35.714476677562104,174.53774298980554</t>
+          <t>-35.71447664771326,174.5377429855768</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.714355048451765,174.5385699883666</t>
+          <t>-35.71435505521493,174.53856999024242</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-35.714300181352236,174.5377179854217</t>
+          <t>-35.714300151503394,174.53771798119303</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -11835,17 +11835,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.714473931468625,174.53774260076293</t>
+          <t>-35.714473961317466,174.53774260499165</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.714489479659875,174.5386072740701</t>
+          <t>-35.714489486423034,174.5386072759459</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-35.7143023030797,174.5394158370355</t>
+          <t>-35.71430232201829,174.53941584503804</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11862,17 +11862,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.714438620288114,174.5377375981851</t>
+          <t>-35.714438590439265,174.53773759395636</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-35.71452769147564,174.53861787248576</t>
+          <t>-35.71452773205456,174.53861788374073</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-35.71431913002748,174.53942294728853</t>
+          <t>-35.714319111088884,174.539422939286</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11890,12 +11890,12 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.71452451955684,174.53861699272306</t>
+          <t>-35.714524478977914,174.5386169814681</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-35.71435333314084,174.53943739987764</t>
+          <t>-35.714353371018035,174.53943741588273</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -11912,17 +11912,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.71452765938389,174.53775021247165</t>
+          <t>-35.71452768923272,174.5377502167004</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.714609261862044,174.53864049685654</t>
+          <t>-35.71460923480944,174.53864048935324</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-35.714367925332205,174.53944356583946</t>
+          <t>-35.71436794427082,174.539443573842</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.71460454999831,174.53776110569268</t>
+          <t>-35.71460452014945,174.53776110146396</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.7145894052459,174.53863498941877</t>
+          <t>-35.714589364666985,174.5386349781638</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-35.714334186215524,174.53942930930708</t>
+          <t>-35.714334195684835,174.53942931330835</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.71449440777424,174.53774550166835</t>
+          <t>-35.71449437792541,174.5377454974396</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-35.7143243854894,174.53942516799282</t>
+          <t>-35.714324394958695,174.53942517199408</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -11993,17 +11993,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-35.714473215096405,174.53774249927355</t>
+          <t>-35.714473244945246,174.53774250350227</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.714542441912464,174.53862196366467</t>
+          <t>-35.71454241485985,174.53862195616136</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-35.714351903276516,174.53943679568553</t>
+          <t>-35.714351922215116,174.5394368036881</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -12020,17 +12020,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.7144927362391,174.53774526485967</t>
+          <t>-35.714492766087936,174.53774526908842</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.71446530138634,174.5386005679985</t>
+          <t>-35.71446530814948,174.5386005698743</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-35.714369004832406,174.53944402198465</t>
+          <t>-35.714368966955206,174.53944400597956</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -12052,12 +12052,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.71453796470517,174.53862072186695</t>
+          <t>-35.71453793088942,174.53862071248784</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-35.71429590183211,174.53941313217925</t>
+          <t>-35.71429593024001,174.53941314418304</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -12074,17 +12074,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.714499243286625,174.53774618672205</t>
+          <t>-35.71449921343779,174.53774618249332</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.71460502136537,174.53863932071073</t>
+          <t>-35.714605014602235,174.53863931883487</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-35.71451991704312,174.53950779041222</t>
+          <t>-35.71451989810453,174.53950778240963</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -12101,12 +12101,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.7145565829111,174.537754310113</t>
+          <t>-35.71455661275994,174.5377543143417</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.71456573421116,174.53862842401648</t>
+          <t>-35.71456571392172,174.53862841838898</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -12124,17 +12124,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.71444294837028,174.53773821134948</t>
+          <t>-35.71444297821912,174.5377382155782</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.714511777776266,174.5386134586664</t>
+          <t>-35.71451181835517,174.53861346992136</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-35.7143372732075,174.53943061372124</t>
+          <t>-35.714337263738194,174.53943060971997</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -12151,17 +12151,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.714404980642286,174.53773283242032</t>
+          <t>-35.71440501049111,174.53773283664904</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.714552417563105,174.53862473051055</t>
+          <t>-35.71455243785256,174.53862473613805</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-35.71434806820991,174.5394351751704</t>
+          <t>-35.714348087148515,174.53943518317294</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -12178,17 +12178,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.714408293863855,174.53773330180778</t>
+          <t>-35.7144083237127,174.53773330603647</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.7145019509146,174.53861073309164</t>
+          <t>-35.71450197120406,174.53861073871911</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-35.71435659058009,174.5394387763154</t>
+          <t>-35.71435660951869,174.53943878431795</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -12205,17 +12205,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-35.71450115361251,174.53774645736058</t>
+          <t>-35.714501183461344,174.5377464615893</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.714599725816875,174.53863785193545</t>
+          <t>-35.714599739343186,174.53863785568714</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-35.714380623663246,174.5394489315485</t>
+          <t>-35.71438064260184,174.53944893955105</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -12232,17 +12232,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.714436501020295,174.537737297946</t>
+          <t>-35.71443653086912,174.53773730217472</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.71453891154659,174.53862098448278</t>
+          <t>-35.71453889802028,174.53862098073114</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-35.71434102305046,174.53943219822452</t>
+          <t>-35.71434101358116,174.53943219422322</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -12260,12 +12260,12 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.71448857339733,174.53860702270956</t>
+          <t>-35.71448860721309,174.5386070320887</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-35.71427443492581,174.53940406131102</t>
+          <t>-35.71427445386442,174.53940406931355</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -12287,12 +12287,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-35.714519724481256,174.5386156627621</t>
+          <t>-35.71451973124441,174.53861566463792</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-35.71435504708417,174.53943812410796</t>
+          <t>-35.71435507549207,174.53943813611178</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -12328,17 +12328,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-35.71457473100642,174.53775688118375</t>
+          <t>-35.7145747011576,174.53775687695503</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.71455341850975,174.5386250081331</t>
+          <t>-35.71455340498345,174.53862500438146</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-35.71432222648883,174.53942425570347</t>
+          <t>-35.714322264366025,174.53942427170855</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.71455407560845,174.53775395489936</t>
+          <t>-35.71455410545728,174.5377539591281</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-35.71441377568039,174.53946294001878</t>
+          <t>-35.714413794619006,174.53946294802134</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.714484557656405,174.53774410618885</t>
+          <t>-35.714484527807556,174.53774410196013</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -12406,12 +12406,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.71462123264202,174.53864381707763</t>
+          <t>-35.714621192063106,174.53864380582263</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-35.71431303179772,174.53942037047165</t>
+          <t>-35.714313060205626,174.53942038247547</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -12433,12 +12433,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.71446880469985,174.53860153967517</t>
+          <t>-35.714468824989325,174.53860154530264</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-35.714232239716175,174.53938623168796</t>
+          <t>-35.714232268124086,174.53938624369172</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -12455,17 +12455,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.714455574430644,174.5377400000984</t>
+          <t>-35.71445560427947,174.53774000432716</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.71457530407243,174.53863107831432</t>
+          <t>-35.714575297309274,174.53863107643852</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-35.71435619286949,174.53943860826192</t>
+          <t>-35.714356183400184,174.53943860426065</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -12482,17 +12482,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.714453574558185,174.53773971677407</t>
+          <t>-35.71445354470936,174.53773971254537</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-35.71456142608278,174.53862722911373</t>
+          <t>-35.71456140579333,174.53862722348623</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-35.71436742345932,174.53944335377193</t>
+          <t>-35.714367432928604,174.53944335777322</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -12514,12 +12514,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.71458559082777,174.53863393145082</t>
+          <t>-35.714585584064615,174.53863392957498</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-35.714375131469396,174.5394466108091</t>
+          <t>-35.714375103061506,174.53944659880528</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12536,17 +12536,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.71444157532352,174.53773801682837</t>
+          <t>-35.71444154547468,174.53773801259965</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-35.71451052659292,174.5386131116386</t>
+          <t>-35.7145104995403,174.5386131041353</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-35.714326118371424,174.53942590022513</t>
+          <t>-35.71432609943282,174.5394258922226</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -12563,17 +12563,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-35.71445124634848,174.53773938693382</t>
+          <t>-35.71445121649964,174.5377393827051</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.71449210376338,174.53860800189014</t>
+          <t>-35.71449212405284,174.5386080075176</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-35.714320862909524,174.53942367952072</t>
+          <t>-35.714320900786724,174.5394236955258</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -12595,12 +12595,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-35.714552140273845,174.5386246536016</t>
+          <t>-35.71455217408961,174.53862466298077</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-35.714336525132765,174.53943029762087</t>
+          <t>-35.714336496724854,174.53943028561707</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -12622,12 +12622,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.71451084446111,174.53861319980243</t>
+          <t>-35.714510851224276,174.53861320167823</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-35.71427013586287,174.5394022447372</t>
+          <t>-35.714270107454965,174.53940223273344</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -12645,12 +12645,12 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.714499448547876,174.53861003903626</t>
+          <t>-35.71449942149526,174.53861003153295</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-35.71436604094152,174.53944276958595</t>
+          <t>-35.71436606934943,174.53944278158977</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.71448137063898,174.53860502495635</t>
+          <t>-35.71448139769157,174.53860503245966</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -12695,12 +12695,12 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.71455722616484,174.53862606422433</t>
+          <t>-35.714557185585925,174.53862605296936</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-35.71436645759073,174.539442945642</t>
+          <t>-35.71436649546793,174.5394429616471</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -12718,12 +12718,12 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.714550226301554,174.53862412274233</t>
+          <t>-35.714550239827865,174.53862412649397</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-35.714329972376774,174.53942752874187</t>
+          <t>-35.71432993449958,174.5394275127368</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -12740,17 +12740,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.71454458367694,174.53775261016233</t>
+          <t>-35.714544613525774,174.53775261439102</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.71463448165768,174.53864749183197</t>
+          <t>-35.714634468131365,174.53864748808033</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-35.714407156640284,174.5394601431253</t>
+          <t>-35.71440714717099,174.539460139124</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -12772,12 +12772,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.71461196712306,174.5386412471889</t>
+          <t>-35.714611960359925,174.53864124531307</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-35.71434729172729,174.53943484706613</t>
+          <t>-35.7143473201352,174.53943485906993</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -12818,12 +12818,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.71448722076665,174.5386066475446</t>
+          <t>-35.71448720047719,174.53860664191714</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-35.71426078966203,174.53939829549046</t>
+          <t>-35.71426081806993,174.53939830749425</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -12845,12 +12845,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-35.71456992060277,174.53862958515447</t>
+          <t>-35.71456993412909,174.53862958890613</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-35.714353569873346,174.53943749990944</t>
+          <t>-35.714353541465435,174.53943748790567</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -12868,12 +12868,12 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-35.71452737360744,174.5386177843219</t>
+          <t>-35.7145273803706,174.53861778619773</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-35.714361164252026,174.5394407089302</t>
+          <t>-35.71436112637483,174.5394406929251</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12890,17 +12890,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.714548075991374,174.537753104924</t>
+          <t>-35.714548105840215,174.53775310915276</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.71457613594022,174.53863130904134</t>
+          <t>-35.714576176519145,174.5386313202963</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-35.71438247017668,174.53944971179718</t>
+          <t>-35.71438243229948,174.5394496957921</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12917,17 +12917,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.714568283656796,174.5377559677769</t>
+          <t>-35.71456825380795,174.53775596354814</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.714557544033035,174.53862615238825</t>
+          <t>-35.714557537269876,174.5386261505124</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-35.71437608786868,174.53944701493782</t>
+          <t>-35.714376125745865,174.53944703094294</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12946,7 +12946,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-35.71456697944793,174.53952767683373</t>
+          <t>-35.71456694157076,174.53952766082855</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -12964,12 +12964,12 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.714521868400794,174.53861625739907</t>
+          <t>-35.714521841348194,174.53861624989577</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-35.71436553906862,174.53944255751847</t>
+          <t>-35.714365558007216,174.539442565521</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -12987,7 +12987,7 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.71439033859001,174.53857977639015</t>
+          <t>-35.71439031153739,174.53857976888688</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -13006,12 +13006,12 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.71456641052646,174.53862861159934</t>
+          <t>-35.7145664172896,174.5386286134752</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-35.71441128525473,174.53946188768253</t>
+          <t>-35.71441132313193,174.53946190368768</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -13028,17 +13028,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.714452052267234,174.5377395011093</t>
+          <t>-35.71445202241839,174.5377394968806</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.71457456688877,174.53863087384897</t>
+          <t>-35.714574593941386,174.5386308813523</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-35.71435199796951,174.53943683569827</t>
+          <t>-35.714352007438805,174.53943683969953</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -13055,17 +13055,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.714395130524075,174.53773143694434</t>
+          <t>-35.714395160372916,174.53773144117307</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.71451479414259,174.5386142952848</t>
+          <t>-35.71451480766889,174.53861429903642</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-35.71422625511705,174.53938370289202</t>
+          <t>-35.71422621723983,174.53938368688696</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -13082,17 +13082,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-35.71445745490771,174.53774026650788</t>
+          <t>-35.714457484756544,174.53774027073663</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.71451879792926,174.5386154057739</t>
+          <t>-35.714518764113514,174.53861539639476</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-35.71429397956396,174.53941231992223</t>
+          <t>-35.714293970094666,174.53941231592097</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -13110,12 +13110,12 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-35.71460691504811,174.5386398459433</t>
+          <t>-35.71460694886386,174.53863985532246</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-35.71439079369101,174.53945322891857</t>
+          <t>-35.714390784221706,174.53945322491728</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -13132,17 +13132,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.71457162672698,174.53775644139523</t>
+          <t>-35.71457165657582,174.53775644562396</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.71463809994421,174.53864849540219</t>
+          <t>-35.714638072891596,174.53864848789885</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-35.71444650157702,174.53947676844342</t>
+          <t>-35.71444652051562,174.539476776446</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -13161,7 +13161,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-35.71433767091811,174.5394307817746</t>
+          <t>-35.71433768985671,174.53943078977716</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.71450884256776,174.53861264455796</t>
+          <t>-35.714508829041456,174.53861264080632</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -13205,17 +13205,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.71445073891817,174.53773931504557</t>
+          <t>-35.714450768767,174.5377393192743</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.71452662289746,174.53861757610514</t>
+          <t>-35.714526589081686,174.538617566726</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-35.71430983117401,174.53941901804308</t>
+          <t>-35.71430982170471,174.5394190140418</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -13233,12 +13233,12 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.71458542174895,174.53863388455508</t>
+          <t>-35.714585408222646,174.5386338808034</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-35.71435798256721,174.53943936450247</t>
+          <t>-35.7143579730979,174.5394393605012</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.71456855444592,174.53862920623703</t>
+          <t>-35.714568527393304,174.53862919873373</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -13287,12 +13287,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.71464351722924,174.53864999794393</t>
+          <t>-35.7146435239924,174.53864999981974</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-35.71448890509396,174.53949468619402</t>
+          <t>-35.714488876686076,174.53949467419017</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -13310,12 +13310,12 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.714611365202494,174.53864108023996</t>
+          <t>-35.71461134491303,174.53864107461246</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-35.71438985623035,174.53945283279225</t>
+          <t>-35.71438984676105,174.53945282879096</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -13332,17 +13332,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.714480020632415,174.5377434634227</t>
+          <t>-35.71448005048124,174.5377434676514</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.71453583431195,174.5386201309814</t>
+          <t>-35.71453582078565,174.53862012722973</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-35.71433014282419,174.53942760076475</t>
+          <t>-35.71433010494699,174.53942758475966</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -13359,17 +13359,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.71453921088551,174.53775184899055</t>
+          <t>-35.71453924073436,174.53775185321928</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.71461446272635,174.53864193937054</t>
+          <t>-35.71461442214744,174.53864192811557</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-35.71442312187851,174.53946688928121</t>
+          <t>-35.71442308400131,174.5394668732761</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -13387,7 +13387,7 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.71449178589517,174.53860791372637</t>
+          <t>-35.714491772368866,174.53860790997473</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -13410,12 +13410,12 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-35.71449981375816,174.5386101403308</t>
+          <t>-35.714499773179234,174.53861012907586</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-35.714321468944775,174.53942393560192</t>
+          <t>-35.71432149735267,174.53942394760574</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -13432,17 +13432,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.71447008096798,174.53774205525758</t>
+          <t>-35.71447011081683,174.5377420594863</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.71452075924369,174.53861594976354</t>
+          <t>-35.714520786296305,174.53861595726684</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-35.71430772898919,174.53941812976166</t>
+          <t>-35.714307691112,174.5394181137566</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.71438178809116,174.53772954670936</t>
+          <t>-35.714381817939994,174.53772955093805</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-35.714211681860334,174.53937754495544</t>
+          <t>-35.71421164398312,174.5393775289504</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -13486,17 +13486,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.71445742505885,174.5377402622792</t>
+          <t>-35.71445739521001,174.53774025805046</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.71452663642376,174.53861757985678</t>
+          <t>-35.71452667700268,174.53861759111174</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-35.714283478108776,174.5394078825187</t>
+          <t>-35.71428348757808,174.53940788651997</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-35.7144168058561,174.539464220428</t>
+          <t>-35.7144167774482,174.53946420842414</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -13545,12 +13545,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.714653269694885,174.53865270289475</t>
+          <t>-35.714653283221196,174.53865270664642</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-35.71444615121297,174.53947662039602</t>
+          <t>-35.714446179620865,174.53947663239987</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -13567,17 +13567,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.71443530706657,174.53773712879723</t>
+          <t>-35.71443527721773,174.5377371245685</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.71450479143897,174.53861152093836</t>
+          <t>-35.71450478467581,174.53861151906253</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-35.71424779777973,174.539392805759</t>
+          <t>-35.71424777884112,174.53939279775648</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -13595,12 +13595,12 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.71436070921186,174.53857155842647</t>
+          <t>-35.71436068215924,174.53857155092322</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-35.71426351682095,174.53939944785415</t>
+          <t>-35.71426354522887,174.53939945985795</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -13622,12 +13622,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.71458544203842,174.53863389018255</t>
+          <t>-35.714585408222646,174.5386338808034</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-35.714358029913704,174.53943938450882</t>
+          <t>-35.71435805832161,174.53943939651265</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -13644,17 +13644,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.71456210494671,174.5377550924288</t>
+          <t>-35.71456207509785,174.53775508820004</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.714552113221224,174.5386246460983</t>
+          <t>-35.71455208616862,174.538624638595</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-35.714362935011124,174.5394414571683</t>
+          <t>-35.71436291607253,174.53944144916574</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-35.71454929974959,174.53862386575392</t>
+          <t>-35.71454927269699,174.53862385825062</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -13714,12 +13714,12 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.714501436914944,174.53861059052892</t>
+          <t>-35.7145014436781,174.53861059240472</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-35.71434115562066,174.53943225424229</t>
+          <t>-35.71434118402857,174.5394322662461</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -13737,7 +13737,7 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-35.71456657284212,174.53862865661924</t>
+          <t>-35.71456659313158,174.53862866224674</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -13759,17 +13759,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.71447106597977,174.53774219480545</t>
+          <t>-35.714471095828614,174.5377421990342</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.71458645651131,174.53863417155702</t>
+          <t>-35.71458646327448,174.53863417343283</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-35.714415451746326,174.53946364824512</t>
+          <t>-35.714415413869126,174.53946363224</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -13791,12 +13791,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.71454727080371,174.53862330300558</t>
+          <t>-35.714547250514244,174.53862329737808</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-35.71430217997878,174.53941578501906</t>
+          <t>-35.71430215157087,174.53941577301526</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -13814,12 +13814,12 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.71452700839719,174.53861768302727</t>
+          <t>-35.71452702868664,174.53861768865474</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-35.714316866864586,174.53942199098532</t>
+          <t>-35.714316895272475,174.5394220029891</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -13836,17 +13836,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.71445127619733,174.53773939116255</t>
+          <t>-35.714451306046165,174.53773939539127</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.71456560571128,174.53862838837574</t>
+          <t>-35.714565626000734,174.5386283940032</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-35.714365709516024,174.5394426295414</t>
+          <t>-35.714365728454624,174.53944263754394</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -13864,12 +13864,12 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.71445811891728,174.53859857587398</t>
+          <t>-35.714458098627816,174.5385985702465</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-35.71417468529324,174.53936191204957</t>
+          <t>-35.71417465688532,174.5393619000458</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -13891,12 +13891,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.71447272732887,174.53860262765303</t>
+          <t>-35.71447269351311,174.5386026182739</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-35.714226103608205,174.53938363887187</t>
+          <t>-35.714226132016115,174.53938365087564</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -13918,12 +13918,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.71449032505405,174.5386075085482</t>
+          <t>-35.71449036563296,174.53860751980315</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-35.71436362627003,174.53944174926121</t>
+          <t>-35.71436359786213,174.5394417372574</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -13940,17 +13940,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.71446629016502,174.53774151820974</t>
+          <t>-35.71446626031618,174.53774151398102</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-35.714503046545424,174.5386110369754</t>
+          <t>-35.714503026255954,174.5386110313479</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-35.714268876445736,174.53940171256917</t>
+          <t>-35.71426891432296,174.53940172857423</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -13972,12 +13972,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.71460953238815,174.5386405718898</t>
+          <t>-35.714609498572386,174.53864056251064</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-35.71443703227843,174.53947276716195</t>
+          <t>-35.71443706068633,174.53947277916578</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -13994,17 +13994,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.71452306266229,174.53774956124724</t>
+          <t>-35.714523032813446,174.53774955701851</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.7145881743521,174.53863464801773</t>
+          <t>-35.71458813377319,174.53863463676277</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-35.71436321909014,174.53944157720647</t>
+          <t>-35.71436325696734,174.53944159321156</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -14021,17 +14021,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.71447536421304,174.53774280374168</t>
+          <t>-35.714475394061886,174.5377428079704</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.71452101624351,174.53861602104496</t>
+          <t>-35.71452105005927,174.53861603042407</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-35.71432338174351,174.5394247438583</t>
+          <t>-35.71432337227421,174.53942473985703</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -14049,12 +14049,12 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.714573525363235,174.5386305849713</t>
+          <t>-35.71457353888953,174.53863058872295</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-35.71439698661285,174.53945584575342</t>
+          <t>-35.71439700555145,174.53945585375595</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -14071,17 +14071,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.71448196080714,174.53774373828978</t>
+          <t>-35.714481930958314,174.53774373406105</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.71455926863703,174.53862663072448</t>
+          <t>-35.71455929568963,174.53862663822778</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-35.71440892739924,174.53946089136429</t>
+          <t>-35.71440893686856,174.53946089536558</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -14099,7 +14099,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.714524411346375,174.53861696270985</t>
+          <t>-35.714524391056926,174.53861695708235</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -14122,12 +14122,12 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.71455086880108,174.53862430094594</t>
+          <t>-35.71455085527477,174.5386242971943</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-35.71435987642723,174.53944016475705</t>
+          <t>-35.71435984801932,174.53944015275323</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -14146,7 +14146,7 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-35.71434282221754,174.539432958466</t>
+          <t>-35.71434280327893,174.53943295046346</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.71449270568402,174.53860816883858</t>
+          <t>-35.71449273949979,174.5386081782177</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -14191,12 +14191,12 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.71457330217919,174.53863052306895</t>
+          <t>-35.71457327512658,174.53863051556561</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-35.71435168548262,174.5394367036563</t>
+          <t>-35.71435166654401,174.53943669565373</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -14234,7 +14234,7 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-35.71433887351927,174.539431289936</t>
+          <t>-35.71433888298858,174.53943129393727</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -14274,17 +14274,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.71449790008875,174.53774599642932</t>
+          <t>-35.71449787023991,174.53774599220063</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.71456150724062,174.53862725162367</t>
+          <t>-35.71456149371432,174.538627247872</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-35.714325777476596,174.5394257561794</t>
+          <t>-35.71432575853799,174.53942574817688</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -14306,12 +14306,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.714528367790955,174.53861806006842</t>
+          <t>-35.7145283475015,174.53861805444095</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-35.71429095885686,174.53941104351836</t>
+          <t>-35.71429098726477,174.53941105552218</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -14329,12 +14329,12 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.71455918071604,174.5386266063387</t>
+          <t>-35.71455920776865,174.538626613842</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-35.71431242576247,174.5394201143905</t>
+          <t>-35.714312463639665,174.53942013039557</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -14356,12 +14356,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.71441157489338,174.53858566646628</t>
+          <t>-35.71441158841969,174.53858567021788</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-35.71421840506524,174.53938038584855</t>
+          <t>-35.71421837665733,174.53938037384478</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -14378,17 +14378,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.714451873174184,174.53773947573697</t>
+          <t>-35.71445184332534,174.53773947150825</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.714522578531884,174.53861645436083</t>
+          <t>-35.714522544716125,174.53861644498173</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-35.71428856312362,174.53941003119814</t>
+          <t>-35.71428860100083,174.5394100472032</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -14405,17 +14405,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.71452503268583,174.53774984034342</t>
+          <t>-35.71452500283699,174.5377498361147</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.714547304619465,174.5386233123847</t>
+          <t>-35.71454733843524,174.53862332176385</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-35.71432501046324,174.5394254320766</t>
+          <t>-35.714324991524634,174.53942542407407</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -14432,17 +14432,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.714510257509225,174.5377477471225</t>
+          <t>-35.71451022766039,174.5377477428938</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-35.71456095266209,174.53862709780572</t>
+          <t>-35.7145609661884,174.53862710155738</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-35.714389752068065,174.5394527887782</t>
+          <t>-35.71438976153736,174.53945279277946</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -14464,12 +14464,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.71454413946388,174.5386224344974</t>
+          <t>-35.71454417327964,174.5386224438765</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-35.714327434604215,174.5394264564016</t>
+          <t>-35.71432746301211,174.5394264684054</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.71446875735778,174.5386015265444</t>
+          <t>-35.714468737068316,174.53860152091693</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -14513,17 +14513,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-35.71452001808044,174.53774912991682</t>
+          <t>-35.71451998823161,174.5377491256881</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.71458862072019,174.5386347718225</t>
+          <t>-35.71458866129911,174.5386347830775</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-35.71438287735656,174.53944988385203</t>
+          <t>-35.71438285841796,174.53944987584947</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -14540,17 +14540,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-35.714411845876164,174.537733805025</t>
+          <t>-35.71441181602733,174.5377338007963</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-35.71449196173716,174.53860796249782</t>
+          <t>-35.71449194821085,174.53860795874618</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-35.71426907530108,174.5394017965957</t>
+          <t>-35.71426908477039,174.53940180059698</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -14572,12 +14572,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.71445025336965,174.53859639429174</t>
+          <t>-35.714450273659104,174.53859639991921</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-35.71430806041473,174.53941826980605</t>
+          <t>-35.714308032006834,174.53941825780225</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -14599,12 +14599,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-35.71449328731521,174.53860833015952</t>
+          <t>-35.71449326702576,174.53860832453205</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-35.71427749351022,174.5394053537194</t>
+          <t>-35.71427752191813,174.53940536572316</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -14621,17 +14621,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.71459326713656,174.53775950722945</t>
+          <t>-35.71459323728772,174.5377595030007</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.71460873433614,174.53864035054175</t>
+          <t>-35.71460870728354,174.53864034303845</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-35.71439938234559,174.53945685807648</t>
+          <t>-35.71439939181488,174.53945686207777</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -14667,17 +14667,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-35.714481781714085,174.53774371291743</t>
+          <t>-35.71448175186524,174.5377437086887</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.71454603314671,174.5386229597291</t>
+          <t>-35.7145460196204,174.53862295597744</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-35.714326516082046,174.53942606827846</t>
+          <t>-35.71432652555134,174.53942607227972</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -14699,12 +14699,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.714558078322106,174.5386263005787</t>
+          <t>-35.7145580647958,174.53862629682703</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-35.71435604136069,174.5394385442416</t>
+          <t>-35.71435601295278,174.53943853223777</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -14726,12 +14726,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.71454649980427,174.5386230891612</t>
+          <t>-35.71454645922535,174.53862307790624</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-35.71434874053023,174.53943545926072</t>
+          <t>-35.71434876893813,174.53943547126454</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-35.714313779872505,174.53942068657184</t>
+          <t>-35.714313741995305,174.53942067056678</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -14771,17 +14771,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.714485393423985,174.53774422459315</t>
+          <t>-35.71448542327281,174.53774422882188</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.714576156229676,174.5386313146688</t>
+          <t>-35.714576176519145,174.5386313202963</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-35.71435951659382,174.53944001270867</t>
+          <t>-35.71435950712451,174.5394400087074</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -14803,12 +14803,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.71442109065083,174.53858830574666</t>
+          <t>-35.71442108388768,174.53858830387082</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-35.714261471451756,174.53939858358137</t>
+          <t>-35.71426149985965,174.53939859558517</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -14825,17 +14825,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.71442599422765,174.537735809437</t>
+          <t>-35.71442596437882,174.53773580520829</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.71452323455774,174.53861663631602</t>
+          <t>-35.71452324808404,174.5386166400677</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-35.7143147836184,174.5394211107063</t>
+          <t>-35.714314764679784,174.53942110270373</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -14852,17 +14852,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-35.71443220278694,174.53773668901044</t>
+          <t>-35.714432232635794,174.53773669323917</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-35.71447790790441,174.5386040645343</t>
+          <t>-35.714477880851796,174.538604057031</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-35.71426102639458,174.53939839552206</t>
+          <t>-35.714260988517374,174.539398379517</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -14884,12 +14884,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.71465872755876,174.5386542166921</t>
+          <t>-35.714658734321915,174.53865421856793</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-35.71471841241282,174.53959166566122</t>
+          <t>-35.71471838400494,174.53959165365728</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -14911,12 +14911,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.71456592357946,174.53862847653969</t>
+          <t>-35.71456588976368,174.53862846716055</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-35.71437925061478,174.53944835136363</t>
+          <t>-35.71437927902269,174.53944836336746</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -14933,17 +14933,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.71450983962545,174.53774768792033</t>
+          <t>-35.714509869474306,174.53774769214905</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.71455417598287,174.53862521822583</t>
+          <t>-35.71455419627233,174.53862522385333</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-35.71433224500892,174.53942848904668</t>
+          <t>-35.71433223553962,174.53942848504542</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -14960,17 +14960,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-35.71454616566553,174.53775283428513</t>
+          <t>-35.71454613581668,174.5377528300564</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.71461219707026,174.53864131096717</t>
+          <t>-35.71461222412288,174.5386413184705</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-35.71437194031536,174.53944526237964</t>
+          <t>-35.714371949784656,174.5394452663809</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.71446317099297,174.53859997711405</t>
+          <t>-35.71446319804559,174.53859998461735</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -15019,7 +15019,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.71456434100169,174.5386280375958</t>
+          <t>-35.714564307185924,174.53862802821666</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -15046,12 +15046,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.714640250626665,174.53864909191685</t>
+          <t>-35.71464027091612,174.53864909754435</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-35.714449645384114,174.53947809686912</t>
+          <t>-35.714449673792004,174.53947810887297</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -15069,12 +15069,12 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.71460968794066,174.5386406150339</t>
+          <t>-35.71460967441434,174.53864061128223</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-35.7144249021067,174.5394676415218</t>
+          <t>-35.71442487369881,174.53946762951796</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.71456160868793,174.53862727976107</t>
+          <t>-35.71456158163531,174.53862727225777</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -15118,17 +15118,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.71449978056579,174.53774626283914</t>
+          <t>-35.71449975071694,174.5377462586104</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.71447575045847,174.53860346614638</t>
+          <t>-35.71447577074793,174.53860347177385</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-35.71429702867895,174.53941360832997</t>
+          <t>-35.71429703814826,174.53941361233123</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -15145,17 +15145,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.71463395110604,174.5377652710028</t>
+          <t>-35.71463398095487,174.53776527523155</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.7146715978374,174.53865778640343</t>
+          <t>-35.714671570784795,174.53865777890007</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-35.71446536441928,174.5394847389991</t>
+          <t>-35.71446535494998,174.5394847349978</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.714528070212225,174.53861797753206</t>
+          <t>-35.71452808373852,174.53861798128372</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -15200,12 +15200,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.714509140146504,174.5386127270943</t>
+          <t>-35.71450918072542,174.53861273834926</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-35.71429885625409,174.53941438057439</t>
+          <t>-35.71429882784618,174.5394143685706</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -15223,12 +15223,12 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.71445700976009,174.53859826823896</t>
+          <t>-35.714457043575855,174.5385982776181</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-35.714327870192044,174.53942664046</t>
+          <t>-35.71432788913065,174.53942664846252</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -15246,12 +15246,12 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-35.71465648219221,174.53865359391546</t>
+          <t>-35.71465644837645,174.53865358453632</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-35.714481140269775,174.53949140513953</t>
+          <t>-35.714481121331175,174.53949139713694</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -15273,12 +15273,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.71458799174698,174.53863459737036</t>
+          <t>-35.71458795793123,174.5386345879912</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-35.71439527266966,174.5394551215223</t>
+          <t>-35.71439530107755,174.53945513352613</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -15295,17 +15295,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.71449163183195,174.53774510839682</t>
+          <t>-35.71449160198311,174.53774510416807</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.7145430708857,174.53862213811664</t>
+          <t>-35.714543030306785,174.53862212686167</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-35.714352395680116,174.53943700375171</t>
+          <t>-35.714352433557316,174.53943701975678</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.714479138798346,174.5386044059343</t>
+          <t>-35.71447911174573,174.53860439843103</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -15351,7 +15351,7 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-35.7144231786943,174.53946691328892</t>
+          <t>-35.714423169225,174.53946690928763</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -15368,17 +15368,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.71442124826166,174.53773513707088</t>
+          <t>-35.714421218412824,174.53773513284213</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.71448595605696,174.53860629676538</t>
+          <t>-35.71448596958328,174.53860630051705</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-35.71434679932367,174.539434639</t>
+          <t>-35.714346808792975,174.53943464300127</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -15395,17 +15395,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.71444805252235,174.53773893446066</t>
+          <t>-35.714448082371185,174.5377389386894</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.71452853686978,174.5386181069641</t>
+          <t>-35.714528523343475,174.53861810321246</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-35.714390282348845,174.53945301284966</t>
+          <t>-35.714390272879534,174.5394530088484</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.71451205506554,174.53861353557525</t>
+          <t>-35.71451208211816,174.53861354307855</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -15450,12 +15450,12 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.71452261234765,174.53861646373997</t>
+          <t>-35.71452263263711,174.53861646936747</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-35.714373332302436,174.53944585056695</t>
+          <t>-35.714373313363836,174.53944584256442</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -15473,12 +15473,12 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.714507145016306,174.5386121737257</t>
+          <t>-35.7145071585426,174.53861217747735</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-35.71429969902189,174.53941473668712</t>
+          <t>-35.714299680083286,174.5394147286846</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -15500,12 +15500,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.71449475491949,174.53860873721356</t>
+          <t>-35.714494761682644,174.5386087390894</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-35.714276527641466,174.5394049455904</t>
+          <t>-35.714276499233556,174.5394049335866</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -15522,17 +15522,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.714398055710696,174.5377318513584</t>
+          <t>-35.714398025861854,174.53773184712966</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.714470691619674,174.53860206303003</t>
+          <t>-35.71447067133021,174.53860205740256</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-35.714250013596406,174.53939374205416</t>
+          <t>-35.714249994657806,174.53939373405163</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -15549,17 +15549,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.714444560207774,174.53773843970038</t>
+          <t>-35.71444459005661,174.5377384439291</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.71447833398309,174.53860418271123</t>
+          <t>-35.71447832045678,174.53860417895956</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-35.71438533937446,174.53945092418365</t>
+          <t>-35.71438532990517,174.5394509201824</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -15577,12 +15577,12 @@
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.714683365722095,174.53866105035493</t>
+          <t>-35.71468335219579,174.53866104660327</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-35.71462219491187,174.5395510083987</t>
+          <t>-35.714622166503986,174.53955099639478</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.71453711254788,174.53862048551275</t>
+          <t>-35.714537139600495,174.53862049301605</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -15627,7 +15627,7 @@
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-35.7144558735503,174.53859795310066</t>
+          <t>-35.71445590060291,174.53859796060397</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -15650,12 +15650,12 @@
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.71447602774776,174.53860354305516</t>
+          <t>-35.714476034510916,174.538603544931</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-35.7142143237958,174.53937866130633</t>
+          <t>-35.71421428591858,174.5393786453013</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -15677,12 +15677,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.71459990842199,174.53863790258288</t>
+          <t>-35.71459991518515,174.5386379044587</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-35.71440555632873,174.53945946690936</t>
+          <t>-35.71440552792083,174.5394594549055</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -15699,17 +15699,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-35.714497482204955,174.53774593722719</t>
+          <t>-35.7144975120538,174.53774594145588</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.71455440593007,174.538625282004</t>
+          <t>-35.71455437211431,174.53862527262484</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-35.71438854946703,174.53945228061613</t>
+          <t>-35.71438856840561,174.5394522886187</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -15728,7 +15728,7 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-35.71426189757034,174.5393987636382</t>
+          <t>-35.71426192597824,174.53939877564198</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -15745,17 +15745,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.714519301708265,174.53774902842733</t>
+          <t>-35.714519271859416,174.53774902419858</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.71453024118436,174.53861857967246</t>
+          <t>-35.71453028176328,174.53861859092743</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-35.71437571856599,174.5394468588881</t>
+          <t>-35.71437569962738,174.53944685088558</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -15772,17 +15772,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.71456058265581,174.53775487676333</t>
+          <t>-35.71456055280697,174.5377548725346</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.71458477248629,174.53863370447542</t>
+          <t>-35.714584792775746,174.5386337101029</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-35.71436998017028,174.5394444341159</t>
+          <t>-35.7143699896396,174.53944443811716</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -15799,17 +15799,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.714455843070205,174.53774003815693</t>
+          <t>-35.71445587291907,174.53774004238565</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.714509877330215,174.53861293155933</t>
+          <t>-35.71450988409335,174.53861293343513</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-35.714307700581294,174.53941811775786</t>
+          <t>-35.714307691112,174.5394181137566</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.7145520185371,174.53862461983672</t>
+          <t>-35.714551998247636,174.53862461420923</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -15853,17 +15853,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-35.714471752503144,174.5377422920661</t>
+          <t>-35.71447172265431,174.53774228783737</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.71450189004621,174.5386107162092</t>
+          <t>-35.71450188328306,174.53861071433337</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-35.714316118789824,174.53942167488512</t>
+          <t>-35.71431612825912,174.53942167888638</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -15880,17 +15880,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-35.71449085576205,174.53774499844994</t>
+          <t>-35.71449088561089,174.53774500267866</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.7145633197656,174.5386277543457</t>
+          <t>-35.71456334005506,174.53862775997317</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-35.71435397705325,174.53943767196418</t>
+          <t>-35.714353967583946,174.53943766796291</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -15908,12 +15908,12 @@
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.71456064155706,174.53862701151763</t>
+          <t>-35.71456061450444,174.53862700401433</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-35.7143755954651,174.53944680687155</t>
+          <t>-35.71437561440369,174.53944681487408</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -15932,7 +15932,7 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-35.714294746577366,174.53941264402476</t>
+          <t>-35.71429473710805,174.5394126400235</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -15950,12 +15950,12 @@
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.71448302761156,174.53860548453335</t>
+          <t>-35.714483068190475,174.53860549578832</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-35.71433972575631,174.53943165005037</t>
+          <t>-35.7143397352256,174.53943165405164</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -15972,17 +15972,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.7146519499566,174.53776782093547</t>
+          <t>-35.714651979805424,174.5377678251642</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.71475730726118,174.53868155887372</t>
+          <t>-35.71475729373488,174.53868155512203</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-35.71454195209718,174.5395171014158</t>
+          <t>-35.71454197103577,174.5395171094184</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -15999,17 +15999,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.71446936459578,174.53774195376823</t>
+          <t>-35.71446939444461,174.53774195799696</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-35.71453563818052,174.53862007658242</t>
+          <t>-35.714535644943666,174.53862007845822</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-35.71439389015194,174.53945453733596</t>
+          <t>-35.714393852274746,174.53945452133084</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -16026,17 +16026,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.71441453227201,174.53773418560948</t>
+          <t>-35.71441450242319,174.53773418138078</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.714470394040916,174.53860198049375</t>
+          <t>-35.71447040756723,174.53860198424542</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-35.714267967392786,174.53940132844787</t>
+          <t>-35.714267976862075,174.53940133244913</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -16054,12 +16054,12 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.71458456959171,174.53863364820052</t>
+          <t>-35.7145845290128,174.53863363694555</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-35.714427392532315,174.5394686938584</t>
+          <t>-35.7144274304095,174.5394687098635</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -16077,12 +16077,12 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.71452783350186,174.5386179118781</t>
+          <t>-35.71452781997556,174.53861790812647</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-35.714388748322314,174.53945236464293</t>
+          <t>-35.71438873885301,174.53945236064166</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.71456776992019,174.5386289886409</t>
+          <t>-35.71456773610442,174.53862897926177</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -16131,12 +16131,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.71447105006681,174.53860216244868</t>
+          <t>-35.71447102301419,174.53860215494538</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-35.71432911067042,174.53942716462632</t>
+          <t>-35.714329082262516,174.53942715262252</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -16153,17 +16153,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.71447990123705,174.5377434465078</t>
+          <t>-35.7144798713882,174.53774344227904</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.7145279146597,174.53861793438804</t>
+          <t>-35.714527907896546,174.5386179325122</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-35.714325663844996,174.53942570816417</t>
+          <t>-35.71432567331429,174.53942571216547</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -16180,17 +16180,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.71423708089456,174.5377090459513</t>
+          <t>-35.71423711074341,174.53770905018</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.71429766308642,174.53855407206197</t>
+          <t>-35.71429764279696,174.53855406643453</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-35.71424960641642,174.53939356999993</t>
+          <t>-35.71424956853921,174.53939355399487</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -16208,12 +16208,12 @@
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.71456618734241,174.538628549697</t>
+          <t>-35.714566153526654,174.5386285403179</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-35.71435489557536,174.5394380600876</t>
+          <t>-35.71435490504467,174.53943806408887</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -16230,17 +16230,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.7146238323492,174.53776383745915</t>
+          <t>-35.71462386219805,174.53776384168788</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.714674749466305,174.53865866054207</t>
+          <t>-35.71467473594001,174.53865865679037</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-35.714484142037186,174.5394926735471</t>
+          <t>-35.71448410416,174.53949265754193</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -16258,7 +16258,7 @@
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.71472461418583,174.53867249107583</t>
+          <t>-35.714724587133226,174.5386724835725</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -16280,17 +16280,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.714431038682086,174.5377365240904</t>
+          <t>-35.71443106853092,174.53773652831913</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.71453027500012,174.5386185890516</t>
+          <t>-35.71453028176328,174.53861859092743</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-35.71442968410262,174.5394696621682</t>
+          <t>-35.71442964622542,174.53946964616307</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.71455678655991,174.5386259422955</t>
+          <t>-35.71455674598099,174.53862593104054</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-35.71460099728956,174.53863820459156</t>
+          <t>-35.71460097023696,174.53863819708826</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.71445356055176,174.5385973115692</t>
+          <t>-35.714453526735994,174.53859730219006</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -16388,17 +16388,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.714394473849524,174.53773134391264</t>
+          <t>-35.71439444400069,174.53773133968392</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.71445916044292,174.53859886475078</t>
+          <t>-35.71445915367977,174.53859886287495</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-35.71431839142202,174.53942263518957</t>
+          <t>-35.71431842929922,174.53942265119463</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -16420,12 +16420,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.71451560572096,174.5386145203839</t>
+          <t>-35.714515598957824,174.5386145185081</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-35.7143395079624,174.53943155802114</t>
+          <t>-35.71433947955449,174.53943154601734</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -16444,7 +16444,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-35.71431943304511,174.53942307532913</t>
+          <t>-35.71431945198371,174.53942308333166</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -16461,17 +16461,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.71440515973535,174.5377328577926</t>
+          <t>-35.714405189584184,174.53773286202133</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.71446239999346,174.53859976327016</t>
+          <t>-35.714462406756624,174.53859976514602</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-35.71425778789333,174.53939702709025</t>
+          <t>-35.71425775001613,174.53939701108519</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -16488,17 +16488,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.71447139431704,174.5377422413214</t>
+          <t>-35.714471364468196,174.53774223709271</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.71449900217978,174.5386099152318</t>
+          <t>-35.714498981890294,174.5386099096043</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-35.714272029723205,174.53940304498994</t>
+          <t>-35.71427206760042,174.539403060995</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -16517,7 +16517,7 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-35.71474788085363,174.53960411774344</t>
+          <t>-35.71474787138433,174.53960411374212</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -16535,12 +16535,12 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.71458874245694,174.53863480558746</t>
+          <t>-35.71458874922009,174.53863480746327</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-35.714430896172864,174.53947017433208</t>
+          <t>-35.71443092458076,174.53947018633593</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-35.71439638417549,174.53773161455035</t>
+          <t>-35.71439641402433,174.53773161877908</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-35.714216908915425,174.53937975364977</t>
+          <t>-35.714216927854025,174.5393797616523</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -16585,12 +16585,12 @@
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.71458298025082,174.5386332073806</t>
+          <t>-35.71458294643506,174.53863319800146</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-35.71440991220636,174.53946130749722</t>
+          <t>-35.71440987432916,174.5394612914921</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -16608,12 +16608,12 @@
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-35.714599002159545,174.53863765122162</t>
+          <t>-35.714599035975304,174.53863766060076</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-35.71461673112845,174.53954869964863</t>
+          <t>-35.71461671218986,174.53954869164602</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -16630,7 +16630,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-35.71446237996668,174.53774096424706</t>
+          <t>-35.71446240981553,174.5377409684758</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -16649,17 +16649,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-35.714568910482456,174.53775605658032</t>
+          <t>-35.714568880633614,174.5377560523516</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-35.714680687513855,174.5386603075245</t>
+          <t>-35.71468071456648,174.53866031502784</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-35.714486907072136,174.53949384192262</t>
+          <t>-35.714486916541446,174.5394938459239</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -16676,17 +16676,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-35.71447300615451,174.5377424696725</t>
+          <t>-35.714472976305665,174.53774246544376</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.7145932940587,174.538636068021</t>
+          <t>-35.71459332111131,174.5386360755243</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-35.71441202386005,174.53946219978226</t>
+          <t>-35.714412004921456,174.5394621917797</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -16703,12 +16703,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.714765405394516,174.53778389442147</t>
+          <t>-35.714765435243365,174.53778389865022</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.71471698535056,174.53867037513243</t>
+          <t>-35.714717025929474,174.53867038638742</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-35.71453609131177,174.53862020226282</t>
+          <t>-35.71453608454862,174.53862020038702</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -16753,17 +16753,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.714538673606356,174.53775177287338</t>
+          <t>-35.714538703455204,174.53775177710213</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-35.714666430789144,174.53865635326642</t>
+          <t>-35.714666471368055,174.5386563645214</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-35.714436189510856,174.53947241104794</t>
+          <t>-35.71443620844945,174.5394724190505</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -16785,12 +16785,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-35.714476257694976,174.5386036068332</t>
+          <t>-35.7144762982739,174.53860361808813</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-35.71434260442363,174.53943286643678</t>
+          <t>-35.71434263283153,174.53943287844058</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -16812,7 +16812,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-35.71462821221538,174.53864575293582</t>
+          <t>-35.71462822574167,174.53864575668746</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -16834,7 +16834,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-35.714477423783144,174.53774309552364</t>
+          <t>-35.714477453632,174.53774309975236</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-35.714306280186136,174.53941751756773</t>
+          <t>-35.71430624230893,174.53941750156267</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -16861,17 +16861,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-35.71437047537952,174.53772794402744</t>
+          <t>-35.714370445530676,174.5377279397987</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.71452303166315,174.53861658004124</t>
+          <t>-35.71452307224207,174.53861659129618</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-35.714645082198174,174.53956067954422</t>
+          <t>-35.714645091667464,174.53956068354555</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -16888,17 +16888,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-35.71443184460084,174.5377366382658</t>
+          <t>-35.71443187444967,174.53773664249456</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-35.71453188463056,174.53861903549839</t>
+          <t>-35.714531864341104,174.53861902987092</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-35.71436195967323,174.53944104503714</t>
+          <t>-35.714361978611834,174.53944105303967</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -16916,7 +16916,7 @@
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-35.71453912796749,174.53862104450926</t>
+          <t>-35.71453916178325,174.5386210538884</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
@@ -16936,7 +16936,7 @@
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-35.71442422031718,174.53946735342967</t>
+          <t>-35.71442419190928,174.53946734142582</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -16953,17 +16953,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-35.7144694541423,174.5377419664544</t>
+          <t>-35.714469483991145,174.5377419706831</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.71456476031715,174.53862815389718</t>
+          <t>-35.714564746790856,174.5386281501455</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-35.71433309724597,174.539428849161</t>
+          <t>-35.71433308777666,174.53942884515973</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.714514469511236,174.53861420524512</t>
+          <t>-35.714514455984926,174.5386142014935</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -17034,17 +17034,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-35.71450482502004,174.53774697749404</t>
+          <t>-35.71450485486888,174.5377469817228</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.71454710848804,174.5386232579857</t>
+          <t>-35.71454707467227,174.53862324860657</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-35.71434551149883,174.53943409482707</t>
+          <t>-35.71434553043743,174.5394341028296</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -17061,17 +17061,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-35.714479393806734,174.53774337461945</t>
+          <t>-35.71447942365557,174.53774337884818</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-35.714487484529634,174.53860672070178</t>
+          <t>-35.71448746424017,174.5386067150743</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-35.71431946145301,174.53942308733292</t>
+          <t>-35.71431945198371,174.53942308333166</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -17089,12 +17089,12 @@
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-35.714307199134396,174.5385567169618</t>
+          <t>-35.71430722618702,174.53855672446508</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-35.71445173809906,174.5394789811525</t>
+          <t>-35.714451719160465,174.53947897314998</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -17111,17 +17111,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-35.714431187926294,174.537736545234</t>
+          <t>-35.714431158077446,174.5377365410053</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.71453523915449,174.5386199659086</t>
+          <t>-35.71453520533871,174.53861995652946</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-35.71439364395015,174.53945443330275</t>
+          <t>-35.71439368182734,174.53945444930787</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -17138,17 +17138,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-35.714549568433426,174.53775331636064</t>
+          <t>-35.71454953858458,174.53775331213194</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.71459119748137,174.53863548651367</t>
+          <t>-35.71459121100768,174.53863549026534</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-35.71436605988012,174.5394427775885</t>
+          <t>-35.71436606934943,174.53944278158977</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -17167,7 +17167,7 @@
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-35.71436174187932,174.53944095300784</t>
+          <t>-35.71436172294073,174.53944094500528</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -17184,17 +17184,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-35.71464744278174,174.537767182395</t>
+          <t>-35.71464741293292,174.53776717816626</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-35.71467754264813,174.53865943526156</t>
+          <t>-35.714677549411284,174.5386594371374</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-35.71451184920188,174.53950438131383</t>
+          <t>-35.714511887079055,174.53950439731898</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -17211,17 +17211,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-35.71445330591861,174.53773967871558</t>
+          <t>-35.71445327606977,174.5377396744869</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.71455176830042,174.53862455043108</t>
+          <t>-35.71455173448467,174.53862454105192</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-35.71437242324965,174.53944546644462</t>
+          <t>-35.71437246112686,174.5394454824497</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.71450499433356,174.53861157721312</t>
+          <t>-35.71450496051781,174.538611567834</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -17270,12 +17270,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.714501808888386,174.53861069369933</t>
+          <t>-35.71450179536207,174.53861068994766</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-35.714249767394556,174.53939363802138</t>
+          <t>-35.71424973898666,174.53939362601758</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -17292,17 +17292,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.7144625292109,174.53774098539068</t>
+          <t>-35.71446249936206,174.53774098116196</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.714487924134595,174.53860684263037</t>
+          <t>-35.71448790384515,174.5386068370029</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-35.714367707538315,174.53944347381014</t>
+          <t>-35.71436768859971,174.5394434658076</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -17319,17 +17319,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-35.714508227788,174.537747459569</t>
+          <t>-35.714508257636844,174.53774746379773</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.71457650115047,174.5386314103361</t>
+          <t>-35.714576528203075,174.5386314178394</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-35.7143681241875,174.5394436498662</t>
+          <t>-35.71436811471821,174.5394436458649</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -17346,17 +17346,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.71448742314523,174.53774451214647</t>
+          <t>-35.714487393296395,174.53774450791775</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-35.71454292209633,174.53862209684843</t>
+          <t>-35.7145429423858,174.5386221024759</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-35.71432160151498,174.5394239916197</t>
+          <t>-35.71432158257638,174.53942398361716</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -17374,12 +17374,12 @@
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-35.71447028583047,174.53860195048057</t>
+          <t>-35.71447031964624,174.5386019598597</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-35.71431216062204,174.539420002355</t>
+          <t>-35.714312122744836,174.53941998634994</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.714526584825585,174.53775006023739</t>
+          <t>-35.714526614674426,174.53775006446608</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-35.71439533895475,174.53945514953125</t>
+          <t>-35.71439530107755,174.53945513352613</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -17424,12 +17424,12 @@
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-35.71461578830425,174.53864230703346</t>
+          <t>-35.71461582888317,174.53864231828842</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-35.71452154576224,174.53950847863405</t>
+          <t>-35.71452151735433,174.53950846663017</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -17446,17 +17446,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-35.71450613836908,174.53774716355804</t>
+          <t>-35.71450610852024,174.53774715932934</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-35.71457241620617,174.53863027733536</t>
+          <t>-35.71457239591672,174.53863027170786</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-35.7144478746253,174.53947734862933</t>
+          <t>-35.7144478840946,174.53947735263063</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -17473,17 +17473,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-35.71450757111349,174.537747366537</t>
+          <t>-35.71450754126464,174.53774736230827</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-35.714575486677546,174.53863112896173</t>
+          <t>-35.714575473151235,174.53863112521006</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-35.7144083024255,174.53946062727994</t>
+          <t>-35.71440834030269,174.53946064328505</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -17505,12 +17505,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-35.714480349402805,174.53860474170688</t>
+          <t>-35.71448034263965,174.53860473983104</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-35.71425411380419,174.53939547460052</t>
+          <t>-35.71425408539628,174.53939546259673</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -17527,17 +17527,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-35.71446566333933,174.53774142940657</t>
+          <t>-35.7144656334905,174.53774142517784</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.71449521481391,174.53860886476966</t>
+          <t>-35.714495201287605,174.53860886101802</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-35.71430015354834,174.53941492874796</t>
+          <t>-35.71430019142556,174.53941494475302</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -17559,12 +17559,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-35.71447762385196,174.5386039857497</t>
+          <t>-35.714477617088825,174.53860398387386</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-35.71423630204687,174.53938794822847</t>
+          <t>-35.71423627363897,174.53938793622467</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -17581,17 +17581,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-35.71450049693799,174.5377463643286</t>
+          <t>-35.71450046708914,174.53774636009985</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.714585922222255,174.53863402336646</t>
+          <t>-35.714585935748566,174.53863402711812</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-35.71432228330463,174.53942427971108</t>
+          <t>-35.714322264366025,174.53942427170855</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.714606102138006,174.53776132558716</t>
+          <t>-35.71460613198686,174.5377613298159</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-35.71439144707267,174.53945350500663</t>
+          <t>-35.71439146601127,174.5394535130092</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -17640,12 +17640,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-35.714584549302245,174.53863364257305</t>
+          <t>-35.7145845290128,174.53863363694555</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-35.714416891079786,174.5394642564395</t>
+          <t>-35.7144168626719,174.53946424443566</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-35.71440226439757,174.53773244760723</t>
+          <t>-35.71440223454872,174.53773244337847</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-35.7143514582194,174.53943660762576</t>
+          <t>-35.7143514960966,174.53943662363085</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -17694,12 +17694,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-35.71458266238263,174.5386331192166</t>
+          <t>-35.7145826826721,174.5386331248441</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-35.71440592563139,174.53945962295916</t>
+          <t>-35.71440595403929,174.539459634963</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -17716,17 +17716,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.714460499489626,174.53774069783753</t>
+          <t>-35.71446052933846,174.5377407020663</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.714526731107895,174.53861760611838</t>
+          <t>-35.71452676492367,174.5386176154975</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-35.714398549047246,174.5394565059641</t>
+          <t>-35.71439853957794,174.53945650196283</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -17743,17 +17743,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-35.7144711555263,174.53774220749165</t>
+          <t>-35.71447118537514,174.53774221172034</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-35.71454481577918,174.53862262208014</t>
+          <t>-35.71454478872657,174.53862261457684</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-35.71434835228893,174.53943529520856</t>
+          <t>-35.71434834281962,174.5394352912073</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -17770,17 +17770,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-35.71448652767997,174.53774438528473</t>
+          <t>-35.71448649783114,174.537744381056</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.71459577613573,174.53863675645061</t>
+          <t>-35.714595782898876,174.53863675832642</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-35.714389496396976,174.53945268074375</t>
+          <t>-35.714389505866265,174.53945268474502</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -17798,12 +17798,12 @@
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.71460415568184,174.53863908060438</t>
+          <t>-35.71460413539238,174.5386390749769</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-35.71437940212359,174.53944841538402</t>
+          <t>-35.71437936424638,174.53944839937893</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -17820,17 +17820,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.714484557656405,174.53774410618885</t>
+          <t>-35.714484527807556,174.53774410196013</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.714577617070674,174.5386317198479</t>
+          <t>-35.714577583254915,174.53863171046876</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-35.714362935011124,174.5394414571683</t>
+          <t>-35.71436291607253,174.53944144916574</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -17847,17 +17847,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-35.714477752120416,174.53774314203963</t>
+          <t>-35.71447772227157,174.53774313781088</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.7145000978106,174.5386102191155</t>
+          <t>-35.714500124863214,174.53861022661877</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-35.71427651817216,174.53940494158914</t>
+          <t>-35.714276499233556,174.5394049335866</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -17875,7 +17875,7 @@
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-35.71459549208332,174.53863667766572</t>
+          <t>-35.714595519135926,174.53863668516908</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -17897,17 +17897,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-35.7145058697295,174.5377471254995</t>
+          <t>-35.714505839880665,174.5377471212708</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.71461133814988,174.53864107273665</t>
+          <t>-35.71461134491303,174.53864107461246</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-35.714425347163754,174.53946782958195</t>
+          <t>-35.71442538504095,174.53946784558707</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.7145033624268,174.5377467702864</t>
+          <t>-35.714503332577955,174.53774676605767</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-35.714359241984106,174.53943989667175</t>
+          <t>-35.714359251453416,174.53943990067305</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -17952,12 +17952,12 @@
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.714558118901024,174.53862631183367</t>
+          <t>-35.71455815271678,174.53862632121277</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-35.71433766144881,174.53943077777333</t>
+          <t>-35.71433768985671,174.53943078977716</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.71455995847862,174.53862682205894</t>
+          <t>-35.71455999905753,174.5386268333139</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -18001,17 +18001,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-35.71455568744586,174.53775418325097</t>
+          <t>-35.71455571729471,174.53775418747972</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.71463976367968,174.53864895685692</t>
+          <t>-35.71463974339024,174.53864895122945</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-35.71443562135293,174.53947217097107</t>
+          <t>-35.71443561188363,174.5394721669698</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-35.714745836956,174.53867837745264</t>
+          <t>-35.714745864008606,174.53867838495597</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -10112,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0834</v>
+        <v>0.1079</v>
       </c>
       <c r="I2" t="n">
         <v>0.005316737546604458</v>
@@ -10190,13 +10190,13 @@
         <v>0.4954070785945968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0588</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.068</v>
+        <v>0.1082</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1025208352187143</v>
@@ -10268,13 +10268,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0419</v>
+        <v>0.0532</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0463</v>
+        <v>0.067</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3064028558564642</v>

--- a/data/nzd0098/nzd0098.xlsx
+++ b/data/nzd0098/nzd0098.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6758,6 +6758,27 @@
       <c r="E301" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>406.13</v>
+      </c>
+      <c r="C302" t="n">
+        <v>385.71</v>
+      </c>
+      <c r="D302" t="n">
+        <v>387.7</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10170,6 +10191,16 @@
       </c>
       <c r="B339" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -10337,34 +10368,34 @@
         <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.0849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.108</v>
+        <v>0.1078</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.003592562866898492</v>
+        <v>-0.002245477076494609</v>
       </c>
       <c r="J2" t="n">
+        <v>301</v>
+      </c>
+      <c r="K2" t="n">
         <v>300</v>
       </c>
-      <c r="K2" t="n">
-        <v>299</v>
-      </c>
       <c r="L2" t="n">
-        <v>4.928971285345085e-05</v>
+        <v>1.937031356047392e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>2.999960319501765</v>
+        <v>2.996771891215761</v>
       </c>
       <c r="N2" t="n">
-        <v>13.60813654638133</v>
+        <v>13.57644676727764</v>
       </c>
       <c r="O2" t="n">
-        <v>3.688920783424514</v>
+        <v>3.684623015625565</v>
       </c>
       <c r="P2" t="n">
-        <v>404.18740226669</v>
+        <v>404.1728190726793</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10415,34 +10446,34 @@
         <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1082</v>
+        <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1008963223462788</v>
+        <v>-0.1033223447698653</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05732363726819667</v>
+        <v>0.06004377451293053</v>
       </c>
       <c r="M3" t="n">
-        <v>2.209895886112881</v>
+        <v>2.215509580284239</v>
       </c>
       <c r="N3" t="n">
-        <v>8.810891915612947</v>
+        <v>8.826781282274219</v>
       </c>
       <c r="O3" t="n">
-        <v>2.968314659131162</v>
+        <v>2.970989949877687</v>
       </c>
       <c r="P3" t="n">
-        <v>392.0620424707064</v>
+        <v>392.0880861491395</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10493,34 +10524,34 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0532</v>
+        <v>0.0531</v>
       </c>
       <c r="H4" t="n">
-        <v>0.067</v>
+        <v>0.0669</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3097137194257049</v>
+        <v>-0.3073989984415808</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3141600328578252</v>
+        <v>0.3116060701686922</v>
       </c>
       <c r="M4" t="n">
-        <v>2.443088776935769</v>
+        <v>2.44566158740015</v>
       </c>
       <c r="N4" t="n">
-        <v>11.02130614382191</v>
+        <v>11.02580315096539</v>
       </c>
       <c r="O4" t="n">
-        <v>3.319835258536469</v>
+        <v>3.320512483181683</v>
       </c>
       <c r="P4" t="n">
-        <v>392.2886503130035</v>
+        <v>392.263801470558</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10558,7 +10589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18689,6 +18720,33 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.714476199980616,174.53774292214595</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.7145874304053,174.5386344416765</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.71435166654401,174.53943669565373</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
